--- a/result/生词本导入模版_2.xlsx
+++ b/result/生词本导入模版_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,16 +620,10 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>n. 名望，名声： fame and renown resulting from an act or achievementMade By Jason &amp; Franklin. This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.
-n. 夸奖，赞扬： acclaim or praise for exceptional achievement</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Employees enjoy the kudos that the job brings as much as the financial rewards.   正如同喜 欢 工作带来的经济回报一样，雇员们也很享受工作所带来的名声和荣誉
-The attorney did pro bono work because it was the right thing to do, and not for any future kudos that itmight bring.   这名律师之所以为慈善机构和穷人所提供免费服务，是因为他觉得这是正确的事情，而非为了任何可能因此而产生的赞扬</t>
-        </is>
-      </c>
+          <t>n. 名望，名声： fame and renown resulting from an act or achievement</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -841,17 +835,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>lampoon</t>
+          <t>lamentable</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>n 讽刺： a harsh satire usually directed against an individual</t>
+          <t>adj. 值得惋惜的，悲哀的： inspiring or deserving of lament or regret; deplorable or pitiable; mournful</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>a lampoon of the movie business at the time  对当时电影产业的一种讽刺</t>
+          <t>The lamentable cries of the women for their lost sons were heard throughout the village.  女 人 们 由 于丧子之痛的哀嚎响彻整个山谷</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -863,17 +857,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>languid</t>
+          <t>lampoon</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>adj. 没精打采的，虚弱的： lacking energy or vitality; weak</t>
+          <t>n 讽刺： a harsh satire usually directed against an individual</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>be languid for weeks after surgery  术后的几周都无精打采的</t>
+          <t>a lampoon of the movie business at the time  对当时电影产业的一种讽刺</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -885,17 +879,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>languish</t>
+          <t>languid</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>vi. 变得衰弱： to be or become feeble, weak, or enervated</t>
+          <t>adj. 没精打采的，虚弱的： lacking energy or vitality; weak</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>languishing during the prolonged heat wave  在持续的热浪下变得虚弱</t>
+          <t>be languid for weeks after surgery  术后的几周都无精打采的</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -907,141 +901,141 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>languish</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>vi. 变得衰弱： to be or become feeble, weak, or enervated</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>languishing during the prolonged heat wave  在持续的热浪下变得虚弱</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>languor</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>n. 懒惰： physical or mental inertness
 n. 衰弱： weakness or weariness of body or mind</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>He enjoyed the languor brought on by a hot summer afternoon.   他很享受夏日午后的慵懒
 The tropical heat sapped our strength, leaving us in a state of unaccustomed languor.   热 带 的 炎 热 气 候消磨着我们的力量，让我们感到一阵虚弱的不适</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>lank</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>adj. 细长瘦弱的： long, straight, and limp; not stiff in structure
 adj. 不僵硬的，柔软松弛的： not stiff in structure</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>a woman with long, lank hair  有着长而稀疏头发的女子
 Right after a shower, her lank hair hung down to her shoulders.   刚出浴的她柔软的头发搭在她的肩上</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>lapse</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>n. 小过失： a slight error typically due to forgetfulness or inattention
 v. 结束，终止： to come to an end</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>a lapse in table manner  餐桌礼仪的小过错
 The contract will lapse at the end of the year.   合同将于年底到期</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>largesse</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>n. 捐赠物： something given to someone without expectation of a return
 n. 慷慨： liberality in giving or willingness to give</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>The alumna's huge bequest was an unexpected largess.  校友们的巨额遗赠是一笔意料之外的财富
 be noted for his largesse  因慷慨而闻名</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>lash</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>n. 击打： a hard strike with a part of the body or an instrument
 v. 猛击，撞击： to strike against with force or violence
 vt. 捆扎： to bind with or as if with a line</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>suddenly felt the lash of her drunken husband's hand on her cheek  突然感觉到脸颊被醉酒的丈夫扇了一耳光
 All night long a barrage of rain lashed the windows.  倾盆大雨整夜敲击着窗户
 Secure the anchor by lashing it to the rail.   通过将锚绑在栏杆上使其稳固。</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>lassitude</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>n. 乏力，没精打采： a state or feeling of weariness, diminished energy, or listlessness</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Symptoms of anaemia include general fatigue and lassitude.  贫血的通常症状包括体虚和乏力</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1051,42 +1045,42 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>lassitude</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>n. 乏力，没精打采： a state or feeling of weariness, diminished energy, or listlessness</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Symptoms of anaemia include general fatigue and lassitude.  贫血的通常症状包括体虚和乏力</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>latent</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>adj. 潜在的，不活跃的： present or potential but not evident or active</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>a latent infection  潜伏性传染病
 He has a latent talent for acting that he hasn't had a chance to</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>latitude</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>n. （行动或言论）自由： freedom from normal restraints, limitations, or regulations</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Students are allowed considerable latitude in choosing courses.   学生在选课时被给予相当大的自由度</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1096,17 +1090,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>laudatory</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>adj. 表示赞扬的： of, relating to, or expressing praise</t>
+          <t>n. （行动或言论）自由： freedom from normal restraints, limitations, or regulations</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>a laudatory review of the new play  对新剧目的赞扬性的评论</t>
+          <t>Students are allowed considerable latitude in choosing courses.   学生在选课时被给予相当大的自由度</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1118,43 +1112,43 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>laudatory</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>adj. 表示赞扬的： of, relating to, or expressing praise</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>a laudatory review of the new play  对新剧目的赞扬性的评论</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>lavish</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>adj. 奢侈大量的： characterized by or produced with extravagance and profusion
 v. 挥霍，浪费： to give readily and in large quantities; to use up carelessly</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>lavish buffet  奢侈的自助餐
 a great actor who lavished his talent in lousy movies  将才华浪费在低劣电影上的影星</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>leaven</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>vt. 用轻松、活泼或变更的影响力来充斥： to mingle or permeate with some modifying, alleviating, orvivifying element</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>He needs to leaven his speeches with more humor.  他需要在演讲中再加入点幽默元素。</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1164,17 +1158,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>leer</t>
+          <t>leaven</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>vi. 一瞥，斜眼看： to cast a sidelong glance</t>
+          <t>vt. 用轻松、活泼或变更的影响力来充斥： to mingle or permeate with some modifying, alleviating, orvivifying element</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>He gave her a leering look.   他瞥了她一眼</t>
+          <t>He needs to leaven his speeches with more humor.  他需要在演讲中再加入点幽默元素。</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1186,17 +1180,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>leery</t>
+          <t>leer</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>adj. 怀疑的，不信任的： suspicious or distrustful; wary</t>
+          <t>vi. 一瞥，斜眼看： to cast a sidelong glance</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>be leery of strangers  对陌生人的怀疑</t>
+          <t>He gave her a leering look.   他瞥了她一眼</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1208,17 +1202,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>legacy</t>
+          <t>leery</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>n. 遗产： something handed down from an ancestor or a predecessor or from the past</t>
+          <t>adj. 怀疑的，不信任的： suspicious or distrustful; wary</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>the legacy of the ancient philosophers  古代哲学家们的思想遗产</t>
+          <t>be leery of strangers  对陌生人的怀疑</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1230,67 +1224,67 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>legacy</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>n. 遗产： something handed down from an ancestor or a predecessor or from the past</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>the legacy of the ancient philosophers  古代哲学家们的思想遗产</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>legend</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>n. 传奇，传说： a popular myth of recent origin
 n. 图例： an explanatory list of the symbols on a map or chart</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">Some ancient civilizations had legends about spirits that inhabited trees and rocks.  许 多 古 老 的 文 明都有着关于寄居于树木、岩石之中的灵魂的传说
 The legend in the science textbook indicated that the accompanying picture had been enlarged by 1000%.  </t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>legion</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>n. 大量的人，（尤指）军团： a large body of men and women organized for land warfare
 adj. 大量的：many, numerous</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>joined the French Foreign Legion  加入了法国外籍军团
 The problems are legion.  问题不计其数</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>lenient</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>adj. 宽大仁慈的： inclined not to be harsh or strict; merciful, generous, or indulgent</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>the lenient sentences  仁慈的审判</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1300,42 +1294,42 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>lenient</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>adj. 宽大仁慈的： inclined not to be harsh or strict; merciful, generous, or indulgent</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>the lenient sentences  仁慈的审判</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>lethal</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>adj. 非常有害的，致命的： extremely harmful; devastating</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>This dagger is lethal.   这把匕首是致命的武器
 launched a lethal attack  发动了致命的进攻</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>lethargic</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>adj. 没精打采的，行动迟缓的： of, relating to, or characterized by lethargy, sluggish</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>a big nice meal always makes me feel lethargic and sleepy  一顿大餐吃完总是让我既慵懒又想睡</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1345,17 +1339,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>levelheaded</t>
+          <t>lethargic</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>adj. 明智的： characteristically self-composed and sensible</t>
+          <t>adj. 没精打采的，行动迟缓的： of, relating to, or characterized by lethargy, sluggish</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>a levelheaded assessment of the problem  对于问题的一个明智的评估</t>
+          <t>a big nice meal always makes me feel lethargic and sleepy  一顿大餐吃完总是让我既慵懒又想睡</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1367,17 +1361,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>levity</t>
+          <t>levelheaded</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>n. 轻浮： excessive or unseemly frivolity</t>
+          <t>adj. 明智的： characteristically self-composed and sensible</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>The teachers disapprove of any displays of levity during school assemblies.   老师们不允许学生在学校聚会过程中表现出任何轻浮的态度</t>
+          <t>a levelheaded assessment of the problem  对于问题的一个明智的评估</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1389,67 +1383,67 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>levity</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>n. 轻浮： excessive or unseemly frivolity</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>The teachers disapprove of any displays of levity during school assemblies.   老师们不允许学生在学校聚会过程中表现出任何轻浮的态度</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>liability</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>n. 责任： the quality or state of being liable
 n. 障碍，不利条件： a feature of someone or something that creates difficulty for achieving success</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>The company is trying to reduce its liability in this case.   在这个案件中，公司试图减少他们的责任
 Their chief asset has now become a considerable liability.   他们最大的优点如今已成了不可小觑的负担</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>liberal</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>adj. 思想前卫的： not bound by traditional ways or beliefs
 adj. 慷慨的，大方的： marked by generosity</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>parents who take a very liberal attitude toward letting their children stay out late  思想开放，同意让他们的小孩晚归的家长们
 a doctor who has been very liberal in dispensing low-cost care to patients who could not otherwise afford it</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>libertine</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>n. 放荡不羁者： one who acts without moral restraint; a dissolute person</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>The legend of Don Juan depicts him as a playboy and libertine.   有关唐璜的传说把他描绘成一个放荡不羁的花花公子</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1459,17 +1453,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>licentious</t>
+          <t>libertine</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>adj. 放荡的，性欲强的： lacking legal or moral restraints ; having a strong sexual desire</t>
+          <t>n. 放荡不羁者： one who acts without moral restraint; a dissolute person</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>a moralist who decried what she regarded as the licentious and corrupt culture of the entertainmentindustry  一个公开谴责在她看来无比堕落和放荡的娱乐圈文化的道德家</t>
+          <t>The legend of Don Juan depicts him as a playboy and libertine.   有关唐璜的传说把他描绘成一个放荡不羁的花花公子</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1481,17 +1475,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>liken</t>
+          <t>licentious</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>vt. 显示相似，比较： to see, mention, or show as similar; compare</t>
+          <t>adj. 放荡的，性欲强的： lacking legal or moral restraints ; having a strong sexual desire</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Life is often likened to a journey.   生活经常被比作一次旅行Made By Jason &amp; Franklin.   This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.  </t>
+          <t>a moralist who decried what she regarded as the licentious and corrupt culture of the entertainmentindustry  一个公开谴责在她看来无比堕落和放荡的娱乐圈文化的道德家</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1503,17 +1497,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>limber</t>
+          <t>liken</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>adj. 可塑的，柔软的： capable of being shaped: flexible</t>
+          <t>vt. 显示相似，比较： to see, mention, or show as similar; compare</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>She shaped the basket out of limber branches.  她用柔软的树枝编了一个筐</t>
+          <t>Life is often likened to a journey.   生活经常被比作一次旅行</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1525,68 +1519,68 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>limber</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>adj. 可塑的，柔软的： capable of being shaped: flexible</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>She shaped the basket out of limber branches.  她用柔软的树枝编了一个筐</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>limp</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>adj. 柔软的，松散的： lacking firm texture, substance, or structure
 adj. 软弱的，没有精神的： lacking strength or firmness; weak or spiritless
 vi. 跛行，艰难地行走： to move or proceed haltingly or unsteadily</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Her hair hung limp about her shoulders.   她的头发软沓沓地垂在肩上
 The team's limp performance has many people calling for the head coach's resignation.  队 伍 不 给 力的表现让许多人呼吁教练下课</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>limpid</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>adj. 透明清澈的： characterized by transparent clearness
 adj. 镇定的，淡定的： free from emotional or mental agitation</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>limpid streams  清澈的小溪
 the limpid outlook of a man who is at peace with himself as he awaits death  一个人在平静等待死亡的过程当中所体现出来的淡然的世界观</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>linger</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>vi. 磨蹭，闲荡： to proceed slowly; saunter</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>fans lingered outside the door  粉丝们在门外徘徊</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1596,17 +1590,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>lissome</t>
+          <t>linger</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>adj. 柔软的： easily bent; supple</t>
+          <t>vi. 磨蹭，闲荡： to proceed slowly; saunter</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Rattan is such a lissome material that it can be used for all manner of furniture and baskets.  藤 是 一种非常柔软而有韧性的材料，因此可以被用于形形色色的家具和篮子之中</t>
+          <t>fans lingered outside the door  粉丝们在门外徘徊</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1618,17 +1612,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>lissome</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>v. 倾斜： to set or cause to be at an angle</t>
+          <t>adj. 柔软的： easily bent; supple</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>The sudden lift of the load on the deck listed the ship badly.   甲板上货物被突然提起，船陡然倾斜</t>
+          <t>Rattan is such a lissome material that it can be used for all manner of furniture and baskets.  藤 是 一种非常柔软而有韧性的材料，因此可以被用于形形色色的家具和篮子之中</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1640,43 +1634,43 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>v. 倾斜： to set or cause to be at an angle</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>The sudden lift of the load on the deck listed the ship badly.   甲板上货物被突然提起，船陡然倾斜</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>lithe</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>adj. 敏捷的，轻盈的： characterized by easy flexibility and grace
 adj. 柔软的： easily bent or flexed</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>lithe dancers  灵活优雅的舞者
 lithe branches  柔软的枝条</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>loath</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>adj. 不情愿的，讨厌的： unwilling or reluctant; disinclined</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>I was loath to accept the fact that he had been killed in a terrorist attack.   我很不情愿地接受了他在一场恐怖袭击中丧生的事实</t>
-        </is>
-      </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1686,17 +1680,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>loathe</t>
+          <t>loath</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>vt. 厌恶： to dislike someone or something greatly; abhor</t>
+          <t>adj. 不情愿的，讨厌的： unwilling or reluctant; disinclined</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>I loathe having to do this.  我鄙视不得不这样做。</t>
+          <t>I was loath to accept the fact that he had been killed in a terrorist attack.   我很不情愿地接受了他在一场恐怖袭击中丧生的事实</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1708,22 +1702,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>lofty</t>
+          <t>loathe</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>adj. 崇高的： elevated in character and spirit, nobleMade By Jason &amp; Franklin. This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.
-adj. 高的： rising to a great height
-adj. 自大的： having a feeling of superiority that shows itself in an overbearing attitude</t>
+          <t>vt. 厌恶： to dislike someone or something greatly; abhor</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>lofty ideals  崇高的理想
-lofty mountains  高耸的山峰
-the ever-increasing lofty heights of the world's skyscrapers  不 断 攀 升 的摩天大楼的高度
-She acts all lofty and superior just because she went to Stanford University.   她之所以表现得这么自大和不可一世，只因为她考进了斯坦福</t>
+          <t>I loathe having to do this.  我鄙视不得不这样做。</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1735,68 +1724,64 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>lofty</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>adj. 崇高的： elevated in character and spirit, noble</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>loll</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>vi. 懒洋洋地行动： to act or move in a lax, lazy, or indolent manner
 vi. 偷懒，打发时间： to spend time doing nothing</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>He lolled back in his comfortable chair.  他懒洋洋地倚在他舒适的椅子上
 Some members of the decorating committee were hard at work, and others were just lolling about.   装修队的一部分人在很努力的工作，另一些则在偷懒</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>lopsided</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>adj. 歪的，倾斜的： leaning to one side
 adj.不平衡的，不协调的： lacking in balance, symmetry, or proportion</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>The portrait in the foyer was lopsided.  门厅里的画像挂歪了
 The arrangement of the furniture was lopsided.  家具的摆放太不协调了
 a lopsided score of 4-0 四比零的压倒比分</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>loquacious</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>adj. 话多的： given to fluent or excessive talk</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Sometimes the loquacious talk show host barely lets her guests get a word in.   有时候多话的脱口秀主持人让她的客人一句话都插不进来</t>
-        </is>
-      </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1806,17 +1791,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>loutish</t>
+          <t>loquacious</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>adj. 粗鲁的： having the characteristics of a lout; awkward, stupid, and boorish</t>
+          <t>adj. 话多的： given to fluent or excessive talk</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>a boy with a loutish air  一个举止粗鲁的男孩</t>
+          <t>Sometimes the loquacious talk show host barely lets her guests get a word in.   有时候多话的脱口秀主持人让她的客人一句话都插不进来</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1828,17 +1813,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>lubricate</t>
+          <t>loutish</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>vt. 使润滑： to coat (something) with a slippery substance in order to reduce friction</t>
+          <t>adj. 粗鲁的： having the characteristics of a lout; awkward, stupid, and boorish</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>lubricate the gears  给齿轮打润滑油</t>
+          <t>a boy with a loutish air  一个举止粗鲁的男孩</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1850,17 +1835,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>lucid</t>
+          <t>lubricate</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>adj. 有光亮的： suffused with light</t>
+          <t>vt. 使润滑： to coat (something) with a slippery substance in order to reduce friction</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Those lucid bands that spread across the arctic sky are known as aurora borealis, or the northern lights.  </t>
+          <t>lubricate the gears  给齿轮打润滑油</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1872,43 +1857,43 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>lucid</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>adj. 有光亮的： suffused with light</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Those lucid bands that spread across the arctic sky are known as aurora borealis, or the northern lights.  </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
           <t>lug</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>vt. 拖动，拉动： to cause to follow by applying steady force on
 vt. 费力搬运： to carry laboriously</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">lugged the lawn mower out into the backyard  把割草机拖进院子
 I don't understand why he's always lugging all of his books around when his locker is right over there.  </t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>lugubrious</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>adj. （故作夸张的）悲哀的： mournful, dismal, or gloomy, especially to an exaggerated or ludicrousMade By Jason &amp; Franklin. This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.degree</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>his lugubrious tear-stained face  他忧郁而带着泪痕的脸庞</t>
-        </is>
-      </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1918,116 +1903,112 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>lugubrious</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>adj. （故作夸张的）悲哀的： mournful, dismal, or gloomy, especially to an exaggerated or ludicrous</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>lull</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>n. 相对平静时期，间隙： a momentary halt in an activity
 vt. 使镇静，使安心： to free from distress or disturbance</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">the lull before the storm  暴风雨前的平静
 The absence of attacks for such an extended period had lulled the nation into a false sense of security.  </t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>lullaby</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>n. 催眠曲： a song to quiet children or lull them to sleep
 vt. 使镇静，使安心： to free from distress or disturbance</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>sang a lullaby to the baby every night  每晚都给孩子唱摇篮曲
 reclining peacefully on the deck, lullabied by the gentle motion of the ship  躺卧在甲板上，随着船轻轻的颠簸放松下来</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>lumber</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>n. 木材： tree logs as prepared for human use
 vi. 笨拙地行动： to walk or move with heavy clumsiness
 vi. 使负担（从而拖累）： to place a weight or burden on</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>A huge amount of lumber will be needed to build the house.   建这栋房子需要大量的木材
 The elephant lumbered through the jungle.  大象缓缓地穿越丛林
 lumber the expedition with unnecessary equipment and supplies  不必要的仪器和补给品给此次远征徒增了许多负担</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>luminary</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>n. 杰出人物： a person who has achieved eminence in a specific field</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Buddhist luminary  佛学大师
 Luminaries from the worlds of sports, entertainment, and politics were atthe gala.   全球体育界、娱乐圈和政界的名人都出席了此次盛会</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>lurk</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>vi. 潜伏： to lie in wait in a place of concealment especially for an evil purpose</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Dangers lurk in the path of wilderness.  在这条荒野的小路上隐伏着危险</t>
-        </is>
-      </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2037,67 +2018,67 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>lurch</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>v. 蹒跚： to move forward while swaying from side to side</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>The ship lurched in the storm.   船在风暴中摇摆前行</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>lurk</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>vi. 潜伏： to lie in wait in a place of concealment especially for an evil purpose</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Dangers lurk in the path of wilderness.  在这条荒野的小路上隐伏着危险</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
           <t>lush</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>adj. 茂盛的： growing vigorously especially with luxuriant foliage
 adj. 多产的： producing abundantly
 adj. （声音、味道）优美的，令人愉悦的： appealing to the senses</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>lush grass  茂盛的草
 His lush fields were the envy of neighboring farmers.   他富饶多产的土地让邻居羡慕嫉妒恨
 the lush sounds of the orchestra  管弦乐队奏出的悦耳声音</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>lustrous</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>adj. 有光泽的： having a shiny surface or finish</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>lustrous black hair  乌黑光亮的头发</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>luxurious</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>adj. 豪华的： showing obvious signs of wealth and comfort</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>The luxurious apartment was filled with the latest electronic gadgets and fine works of art.   豪 华 的 公 寓里充斥着最新式的电子产品和精美的艺术作品</t>
-        </is>
-      </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2107,65 +2088,65 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>lustrous</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>adj. 有光泽的： having a shiny surface or finish</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>lustrous black hair  乌黑光亮的头发</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>luxurious</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>adj. 豪华的： showing obvious signs of wealth and comfort</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>The luxurious apartment was filled with the latest electronic gadgets and fine works of art.   豪 华 的 公 寓里充斥着最新式的电子产品和精美的艺术作品</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
           <t>lyric</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>n. （可以哼唱的）小曲： a short musical composition for the human voice often with instrumentalaccompaniment
 adj. 如诗歌般流畅甜美的： having a pleasantly flowing quality suggestive of poetry or music</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>The guitarist improvised and sang a gentle lyric while playing.   吉他手在弹奏的过程中即兴创作并哼唱了一首小曲
 The film's lyric photography really enhanced its romantic mood.   电影中如诗歌般的图像效果着实增强了浪漫的氛围</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>macabre</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>adj. 恐怖的： suggesting the horror of death and decay; gruesome</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Impressively, Plants vs.   Zombies presented a supposedly macabre themeinsuch anenjoyableway.  令人难忘的是，《植物大战僵尸》将一个本应该十分恐怖的主题用一种如此欢乐的方式呈现出来</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>macerate</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>vt. 浸泡（以软化）： to make soft by soaking or steeping in a liquid</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>macerate the sample in ethanol  用乙醇浸软试样</t>
-        </is>
-      </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2175,17 +2156,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>maculate</t>
+          <t>macabre</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>v. 使有斑点，弄脏： to spot, blemish</t>
+          <t>adj. 恐怖的： suggesting the horror of death and decay; gruesome</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Her reputation was maculated after the affair with a married man.  自从被指与一个已婚男士有染之后，她的名声受到了影响</t>
+          <t>Impressively, Plants vs.   Zombies presented a supposedly macabre themeinsuch anenjoyableway.  令人难忘的是，《植物大战僵尸》将一个本应该十分恐怖的主题用一种如此欢乐的方式呈现出来</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2197,17 +2178,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>maelstrom</t>
+          <t>macerate</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>n. 漩涡： a powerful often violent whirlpool sucking in objects within a given radius</t>
+          <t>vt. 浸泡（以软化）： to make soft by soaking or steeping in a liquid</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Their raft got caught in a maelstrom.   他们的筏被一个漩涡卷住了</t>
+          <t>macerate the sample in ethanol  用乙醇浸软试样</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2219,17 +2200,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>magnificent</t>
+          <t>maculate</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>adj. 壮丽的： strikingly beautiful or impressive</t>
+          <t>v. 使有斑点，弄脏： to spot, blemish</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>a magnificent cathedral  宏伟壮观的大教堂</t>
+          <t>Her reputation was maculated after the affair with a married man.  自从被指与一个已婚男士有染之后，她的名声受到了影响</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2241,17 +2222,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>maladroit</t>
+          <t>maelstrom</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>adj. 笨拙的： lacking or showing a lack of nimbleness in using one's hands</t>
+          <t>n. 漩涡： a powerful often violent whirlpool sucking in objects within a given radius</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>a maladroit movement  笨拙的动作</t>
+          <t>Their raft got caught in a maelstrom.   他们的筏被一个漩涡卷住了</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2263,17 +2244,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>malaise</t>
+          <t>magnificent</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>n. 不舒服： a vague feeling of bodily discomfort, as at the beginning of an illness</t>
+          <t>adj. 壮丽的： strikingly beautiful or impressive</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>He complained of depression, headaches and malaise.   他抱怨说感到沮丧、头痛和身体不适</t>
+          <t>a magnificent cathedral  宏伟壮观的大教堂</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2285,157 +2266,157 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>maladroit</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>adj. 笨拙的： lacking or showing a lack of nimbleness in using one's hands</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>a maladroit movement  笨拙的动作</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>malaise</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>n. 不舒服： a vague feeling of bodily discomfort, as at the beginning of an illness</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>He complained of depression, headaches and malaise.   他抱怨说感到沮丧、头痛和身体不适</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
           <t>malcontent</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>n. 不满分子： one who is in active opposition to an established order or government
 adj. 不满的： dissatisfied with the existing state of affairs</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>The chaos was caused by a handful of malcontents.  混乱是由一小撮不满分子引起的
 The film follows three malcontent teenagers around Paris.   电影围绕着三个不满现实的青少年在巴黎展开</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>malicious</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>adj. 恶意的： given to, marked by, or arising from malice; deliberately harmful</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>spread malicious gossips  散播恶意的流言蜚语</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>malign</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>adj. 恶意的： having or showing a desire to cause someone pain or suffering for the sheer enjoymentof it
 vt. 诽谤： to utter injuriously misleading or false reports about: speak evil of</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>Both parties to the divorce showed a malign desire to make each other's future life utterly miserable.   离婚双方都表露出了恶毒的愿望，希望对方未来的生活陷入彻底的悲剧之中
 the belief that it is possible to win an election without maligning anyone  一种信念，那就是要赢得一场选举就不得不诽谤他人</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>malinger</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>vi. 装病以逃避工作： to pretend or exaggerate incapacity or illness (as to avoid duty or work)</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>He claims he's ill, but I think he's just malingering.   他声称他病了，但我觉得他是装的</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>malleable</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>adj. 可塑的： capable of being extended or shaped by beating with a hammer or by the pressure ofrollers
 adj. 易控制的： capable of being altered or controlled by outside forces or influences</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>a malleable metal  有延展性的金属
 The cult leader took advantage of the malleable, compliant personalities of his followers.  这 个 头 目 利用了他的信徒们容易被控制和顺从的特征</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>malodorous</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>adj. 恶臭的： having an unpleasant smell</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>American musteline will eject amalodorous fluid when startled.   美洲鼬科动物受惊吓时会喷出有恶臭味的液体</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>mandatory</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>adj. 强制的： forcing one's compliance or participation</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>GRE test is mandatory for all students, regardless of their nationality, who wish to apply for graduateschools in the United States.  GRE  是每个申请美国研究生院的学生（无论国籍）所必须参加的考试</t>
-        </is>
-      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2445,65 +2426,65 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>malodorous</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>adj. 恶臭的： having an unpleasant smell</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>American musteline will eject amalodorous fluid when startled.   美洲鼬科动物受惊吓时会喷出有恶臭味的液体</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>mandatory</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>adj. 强制的： forcing one's compliance or participation</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>GRE test is mandatory for all students, regardless of their nationality, who wish to apply for graduateschools in the United States.  GRE  是每个申请美国研究生院的学生（无论国籍）所必须参加的考试</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
           <t>mangle</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>vt. 损毁，使伤残： to injure with deep disfiguring wounds by cutting, tearing, or crushing
 vt. 弄砸： to ruin or spoil through ineptitude or ignorance</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>His body was mangled beyond recognition.  他的尸体已经被损毁到无法辨认的程度了
 The orchestra had completely mangled Bach’s music.   乐队彻底演砸了巴赫的音乐</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>mangy</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>adj. 卑劣的： mean; contemptible</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>a mangy trick  卑鄙的手段</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>mania</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>n. 热衷，狂热： an excessively intense enthusiasm, interest, or desire; a craze</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>a mania for neatness  强烈的洁癖</t>
-        </is>
-      </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2513,61 +2494,65 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
+          <t>mangy</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>adj. 卑劣的： mean; contemptible</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>a mangy trick  卑鄙的手段</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>mania</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>n. 热衷，狂热： an excessively intense enthusiasm, interest, or desire; a craze</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>a mania for neatness  强烈的洁癖</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t>manifest</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>adj. 显然的，明显易懂的： clearly apparent to the sight or understanding; obvious
 v. 显现，显露： to make evident or certain by showing or displaying</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>He is a manifest poseur.  他显然是个装模作样的人
 His frustration is often manifested by a minor facial tic.   他的沮丧通常会从脸部的细微抽搐中表现出来</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>manipulate</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>vt. 巧妙操作： to move, arrange, operate, or control by the hands or by mechanical means, especially</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>mannered</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>adj. 不自然的，做作的： having an artificial or stilted character</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>a mannered speech  做作的演讲</t>
-        </is>
-      </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2577,19 +2562,15 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>manumit</t>
+          <t>manipulate</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>v. 解放（奴隶）： to release from slavery or bondage</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Though he was an outspoken defender of liberty, this son of Virginia did not manumit his own slaves untilhe was on his deathbed.   尽管这位维吉尼亚之子公开地支持自由，但他直到临死才释放自己的奴隶</t>
-        </is>
-      </c>
+          <t>vt. 巧妙操作： to move, arrange, operate, or control by the hands or by mechanical means, especially</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2599,17 +2580,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>manuscript</t>
+          <t>mannered</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>n. 手稿： a book, document, or other composition written by hand</t>
+          <t>adj. 不自然的，做作的： having an artificial or stilted character</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>beautiful Latin manuscript on the school's diplomas  学校毕业证书上美丽的手写拉丁文</t>
+          <t>a mannered speech  做作的演讲</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2621,66 +2602,66 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>manumit</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>v. 解放（奴隶）： to release from slavery or bondage</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Though he was an outspoken defender of liberty, this son of Virginia did not manumit his own slaves untilhe was on his deathbed.   尽管这位维吉尼亚之子公开地支持自由，但他直到临死才释放自己的奴隶</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>manuscript</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>n. 手稿： a book, document, or other composition written by hand</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>beautiful Latin manuscript on the school's diplomas  学校毕业证书上美丽的手写拉丁文</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
           <t>mar</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>n.污点，坏点： something that spoils the appearance or completeness of a thing
 vt. 破坏，削弱： to impair the soundness, perfection, or integrity of; spoil</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>mars on the furniture  家具上的污点
 The once flatroad surface is now marred by numerous potholes.   曾经平整的路面如今被坑洞所破坏
 anelection marred by sexual scandal  被性丑闻蒙上阴影的选举</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>marsh</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>n. 沼泽，湿地： an area of soft, wet, low-lying land</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>The marshes along the coast support a remarkable profusion of plants and animals.  沿 着 海 岸 线 一 带的沼泽为大量的动植物提供了栖息所</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>martinet</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>n. 纪律严明之人： a strict disciplinarian</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>He's a retired lieutenant and a bit of a martinet.  他是一个退役的中尉，并且是一个有点纪律严明的人</t>
-        </is>
-      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2690,60 +2671,60 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
+          <t>marsh</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>n. 沼泽，湿地： an area of soft, wet, low-lying land</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>The marshes along the coast support a remarkable profusion of plants and animals.  沿 着 海 岸 线 一 带的沼泽为大量的动植物提供了栖息所</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>martinet</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>n. 纪律严明之人： a strict disciplinarian</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>He's a retired lieutenant and a bit of a martinet.  他是一个退役的中尉，并且是一个有点纪律严明的人</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
           <t>marvel</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>n. 令人惊奇的事物： one that evokes surprise, admiration, or wonder
 v.（因为壮观、美丽等而）表示惊讶： to feel amazement or bewilderment at or about</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>masquerade</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>n. 面具，伪装： a display of emotion or behavior that is insincere or intended to deceive</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Although she was deeply bored, she maintained a masquerade of polite interest as her guest droned on.  </t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>mash</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>v. 捣碎： to cause to become a pulpy mass</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>mash potatoesbefore adding it to the mixture  在混合之前捣碎土豆</t>
-        </is>
-      </c>
+      <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2753,17 +2734,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>mastery</t>
+          <t>masquerade</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>n. 技艺超群，精通： possession or display of great skill or technique</t>
+          <t>n. 面具，伪装： a display of emotion or behavior that is insincere or intended to deceive</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>She has mastery of several languages.   她熟练掌握多种语言</t>
+          <t xml:space="preserve">Although she was deeply bored, she maintained a masquerade of polite interest as her guest droned on.  </t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2775,17 +2756,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>maudlin</t>
+          <t>mash</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>adj. 过于感伤的： effusively or tearfully sentimental</t>
+          <t>v. 捣碎： to cause to become a pulpy mass</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Some naive students display an almost maudlin concern for the welfare of animals while ignoring basicsocial inequity.  一些幼稚的学生忽视根本的社会不公平问题，而对动物的权益表现出一种多愁善感的忧虑</t>
+          <t>mash potatoesbefore adding it to the mixture  在混合之前捣碎土豆</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2797,17 +2778,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>maven</t>
+          <t>mastery</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>n. 专家： one who is experienced or knowledgeable: expert</t>
+          <t>n. 技艺超群，精通： possession or display of great skill or technique</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>As an investment maven, he was doing well even when the market was doing poorly.   作 为 一 名 投 资 高手，他在市场不景气的时候也能赚钱</t>
+          <t>She has mastery of several languages.   她熟练掌握多种语言</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2819,83 +2800,87 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
+          <t>matriculate</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>vt. 入学，录取： to admit or be admitted into a group, especially a college or university.</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>matriculate at Princeton  在普林斯顿入学</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>maudlin</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>adj. 过于感伤的： effusively or tearfully sentimental</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Some naive students display an almost maudlin concern for the welfare of animals while ignoring basicsocial inequity.  一些幼稚的学生忽视根本的社会不公平问题，而对动物的权益表现出一种多愁善感的忧虑</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>maven</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>n. 专家： one who is experienced or knowledgeable: expert</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>As an investment maven, he was doing well even when the market was doing poorly.   作 为 一 名 投 资 高手，他在市场不景气的时候也能赚钱</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
           <t>maverick</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>n. 特立独行之人： a person who does not conform to generally accepted standards or customs
 adj. 标新立异的，不合常规的： deviating from commonly accepted beliefs or practices</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>Some mavericks believe that both gravity and light are electromagnetic forces.   一些特立独行的人认为，重力和光都是电磁力
 a maverick view on marriage  关于婚姻的非传统看法</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>mawkish</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>adj. 过度伤感的： excessively and objectionably sentimental</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>a mawkish love story  令人伤感的爱情故事</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>meager</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>adj. 贫乏的： deficient in quantity, fullness, or extent; scanty</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>meager cultural resources  贫乏的文化资源</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>adj. 卑贱的： ignoble; base</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2905,86 +2890,82 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
+          <t>mawkish</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>adj. 过度伤感的： excessively and objectionably sentimental</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>a mawkish love story  令人伤感的爱情故事</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>meager</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>adj. 贫乏的： deficient in quantity, fullness, or extent; scanty</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>meager cultural resources  贫乏的文化资源</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>adj. 卑贱的： ignoble; base</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
           <t>meander</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>vi. 闲逛，漫步： to move aimlessly and idly without fixed direction</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>meander along the river  沿着河闲逛
 vagabonds meandering through life  漂泊一生的浪子</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>measly</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>adj. 少得可怜的，微不足道的： so small or unimportant as to warrant little or no attention</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>gave the parking attendant a measly tip  给了停车保安少得可怜的小费</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>measured</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>adj. 深思熟虑的，审慎的： deliberated, calculated</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>a measured response to the terrorist attack  就恐怖袭击做出的深思熟虑的反应</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>meddle</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>vi. 干涉，管闲事： to intrude into other people's affairs or business; interfere</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Please stop meddling in my marriage.  请不要来干涉我的婚姻</t>
-        </is>
-      </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2994,17 +2975,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>mediate</t>
+          <t>measly</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>vt. 调解，调停： to intervene between two or more disputants in order to bring about an agreement,a settlement, or a compromise</t>
+          <t>adj. 少得可怜的，微不足道的： so small or unimportant as to warrant little or no attention</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>mediate a labor-management dispute  调解劳工纠纷</t>
+          <t>gave the parking attendant a measly tip  给了停车保安少得可怜的小费</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3016,17 +2997,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>mediocre</t>
+          <t>measured</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>adj. 平庸的，质量中等偏下的： moderate to inferior in quality; ordinary</t>
+          <t>adj. 深思熟虑的，审慎的： deliberated, calculated</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Without a desire for success, life is at best mediocre.   没有对成功的强烈渴望，人生最多也就是碌碌无为</t>
+          <t>a measured response to the terrorist attack  就恐怖袭击做出的深思熟虑的反应</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3038,17 +3019,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>medley</t>
+          <t>meddle</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>adj. 大杂烩，混合物： an unorganized collection or mixture of various things</t>
+          <t>vi. 干涉，管闲事： to intrude into other people's affairs or business; interfere</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>a medley of snack foods available on the buffet table  自助餐桌上供应着各式各样的小吃</t>
+          <t>Please stop meddling in my marriage.  请不要来干涉我的婚姻</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3060,87 +3041,87 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
+          <t>mediate</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>vt. 调解，调停： to intervene between two or more disputants in order to bring about an agreement,a settlement, or a compromise</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>mediate a labor-management dispute  调解劳工纠纷</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>adj. 平庸的，质量中等偏下的： moderate to inferior in quality; ordinary</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Without a desire for success, life is at best mediocre.   没有对成功的强烈渴望，人生最多也就是碌碌无为</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>medley</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>adj. 大杂烩，混合物： an unorganized collection or mixture of various things</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>a medley of snack foods available on the buffet table  自助餐桌上供应着各式各样的小吃</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
           <t>meek</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>adj. 谦恭的： showing patience and humility; gentle
 adj. 顺从的： easily imposed on; submissive</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>He was a meek, mild-mannered fellow.   他是个谦逊、温文尔雅的的人
 He may be self-effacing, but he certainly isn't meek.  他可能是个很低调的人，但他绝非软骨头</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>meet</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>adj. 合适的： precisely adapted to a particular situation, need, or circumstance: very proper</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>In this case, splitting the winnings of the contested lottery ticket seems like a meetsolution.   在 这 种 情 况下，平分有争议的彩票奖金或许是个合适的解决方案</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>mellifluous</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>adj. （曲调）优美的： smooth and sweet</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>a mellifluous voice  甜美的嗓音</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>melodramatic</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>adj. 感情夸张的，伤感的： exaggeratedly emotional or sentimental; histrionic</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Our office drama queen yet again made the melodramatic declaration that she was contemplating suicide.  </t>
-        </is>
-      </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3150,17 +3131,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>menace</t>
+          <t>meet</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>vt. 威胁，使处于危险： to make a show of intention to harm; to place in danger</t>
+          <t>adj. 合适的： precisely adapted to a particular situation, need, or circumstance: very proper</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Stockpiles of nuclear weapons that continue to menace the inhabitants of this planet.   大 量 的 核 武 器 持续地威胁着这个行星上的居民</t>
+          <t>In this case, splitting the winnings of the contested lottery ticket seems like a meetsolution.   在 这 种 情 况下，平分有争议的彩票奖金或许是个合适的解决方案</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3172,17 +3153,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>mendacious</t>
+          <t>mellifluous</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>adj. 撒谎的，虚假的： telling or containing lies</t>
+          <t>adj. （曲调）优美的： smooth and sweet</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>mendacious tales about his adventures  关于他冒险的虚假传说</t>
+          <t>a mellifluous voice  甜美的嗓音</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3194,247 +3175,247 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
+          <t>melodramatic</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>adj. 感情夸张的，伤感的： exaggeratedly emotional or sentimental; histrionic</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Our office drama queen yet again made the melodramatic declaration that she was contemplating suicide.  </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>menace</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>vt. 威胁，使处于危险： to make a show of intention to harm; to place in danger</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Stockpiles of nuclear weapons that continue to menace the inhabitants of this planet.   大 量 的 核 武 器 持续地威胁着这个行星上的居民</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>mendacious</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>adj. 撒谎的，虚假的： telling or containing lies</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>mendacious tales about his adventures  关于他冒险的虚假传说</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
           <t>mentor</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>n. 导师： a trusted counselor or guide
 vt. 教导，指导： to give advice and instruction regarding the course or process to be followed</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>not only an lecturer but also a spirit mentor  不仅是授课者，还是精神导师
 We're looking for volunteers to mentor students in career planning.   我们在寻找能指导学生职业规划的志愿者</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>mercenary</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>n. 雇佣军： a professional soldier hired for service in a foreign army
 adj. 唯利是图的，贪婪的： motivated solely by a desire for monetary or material gain</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>hire a mercenary army to protect the VIP  雇佣了一支佣兵来保护重要人物
 Virtue flies from the heart of a mercenary man.  唯利是图的人没有美德可言</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>mercurial</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>adj. （情绪）善变的： characterized by rapid and unpredictable changeableness of mood</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>his mercurial temperament  他善变的脾气</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>merited</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>adj. 应得的，理所当然的： being what is called for by accepted standards of right and wrong</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>a merited bonus  应得的奖金
 The punishment, although harsh, was entirely merited.  虽 然 惩 罚 很严厉，但的确是应得的</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>mesh</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>v. 诱捕： to catch or hold as if in a net</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>Dolphins sometimes become meshed in fishnets.   有时海豚也会被渔网缠住</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>mesmeric</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>adj. 催眠的，催眠术的： of, relating to, or induced by mesmerism
 adj. 令人着迷的，难以抗拒的： attracting and holding interest as if by a spell</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>the mesmeric recital  迷人的独奏</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>metamorphose</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>vt. 变形： to change into a different physical form especially by supernatural means</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>a science fiction story in which radiation metamorphoses people into giant bugs  一 个 描 绘 辐 射 将 人 变成了巨大虫子的科幻小说</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>metaphysical</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>adj. 哲学上的，理论上的： dealing with or expressing a quality or idea
 adj. 非尘世的： of, relating to, or being part of a reality beyond the observable physical universe</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>a work that deals with such metaphysical questions as the very nature of knowledge  一部探讨诸如“知识的本性是什么”的理论问题的著作
 a metaphysical world beyond the one in which we live  在我们居住的世界之上的“超然世界”</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>meteoric</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>adj. 流星般迅速而短暂的： similar to a meteor in speed, brilliance, or brevity</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>a meteoric rise to fame  一夜成名</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>methodical</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>adj. 井然有序的，有条理的： arranged or proceeding in regular, systematic order</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>a methodical summary that included lists of points to memorize  一份包含了记忆重点的有条理的总结</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>meticulous</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>adj. 极为谨慎的： marked by extreme or excessive care in the consideration or treatment of details</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>He was so meticulous about everything.   他对所有事都一丝不苟</t>
-        </is>
-      </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3444,441 +3425,504 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
+          <t>meteoric</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>adj. 流星般迅速而短暂的： similar to a meteor in speed, brilliance, or brevity</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>a meteoric rise to fame  一夜成名</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>methodical</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>adj. 井然有序的，有条理的： arranged or proceeding in regular, systematic order</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>a methodical summary that included lists of points to memorize  一份包含了记忆重点的有条理的总结</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>meticulous</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>adj. 极为谨慎的： marked by extreme or excessive care in the consideration or treatment of details</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>He was so meticulous about everything.   他对所有事都一丝不苟</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
           <t>mettle</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>n. 勇气： vigor and strength of spirit or temperament
 n. 毅力，耐力： staying quality: stamina</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>troops who showed their mettle in combat  在战场上表现出坚强勇气的部队
 Those trucks had proved their mettle in army transport.   那些卡车通过在军队运输中的表现证明了它们的耐用性</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>miff</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>vt. 使恼怒： to cause to become offended or annoyed</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>be miffed by her son’s disobedience  被她儿子的叛逆惹恼</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>migratory</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>adj. 迁移的： having a way of life that involves moving from one region to another typically on aseasonal basis</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>migratory birds heading south for the winter  为了越冬而往南飞的候鸟</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>milk</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>vt. 榨取（财富、信息等）： to draw or coerce profit or advantage from illicitly or to an extreme degree</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>milk the workers  从工人身上榨取好处
 The interrogators milked the arrested spy, but he was dry.   审问者想尽办法套被捕间谍的话，但是无功而返</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>mime</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>v. 模仿： to use (someone or something) as the model for one's speech, mannerisms, or behavior</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>miming a dog begging for food  模仿小狗乞食</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>mimic</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>adj. 仿真的，仿造的： being such in appearance only and made with or manufactured from usuallycheaper materia
 v. 做滑稽的模仿（以取笑）： to copy or exaggerate (someone or something) in order to make fun of
 v. 模仿： to use (someone or something) as the model for one's speech, mannerisms, or behavior</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>Police were concerned that the mimic gun, although intended only as a toy, might be confused with the realthing in certain situations.   尽管仿真枪只是玩具，但警方担忧在某些情况下它会被误认为是真枪
 The comedian was famous for mimicking the President's distinctive lisp.   这个演员因能滑稽地模仿总统特有的口齿不清而闻名
 began to learn their language by mimicking the sounds they made  通过模仿发音来学习语言</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>minatory</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>adj. 带来威胁的，有凶兆的： being or showing a sign of evil or calamity to come</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>The novel's protagonist is haunted by a minatory black specter.   小说的主人公被不详的黑色幽灵所骚扰</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>mince</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>vt. 切碎： to cut or chop into very small pieces
 vi. 小步走： to walk with very short steps or with exaggerated primness</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>I'll buy some lean meat and mince it myself.   我会买一些瘦肉然后自己切好的
-The bride minced through the cathedral.   新娘踏着细小的步伐穿过教堂本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+The bride minced through the cathedral.   新娘踏着细小的步伐穿过教堂</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>mingle</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>vi. 参加社交活动： to take part in social activities
 vt. 混合，结合： to mix so that the components become united</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>mingling at a cocktail party  在鸡尾酒会上与他人交往
 mingle the ingredients  将调料混合
 mingle fact and fiction  糅杂了现实与幻想</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>minimize</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>vt. 将…减到最少： to reduce to the smallest possible amount, extent, size, or degree
 vt. 刻意低估： to underestimate intentionally
 vt. 表示鄙夷： to express scornfully one's low opinion of</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>All striking forces are told to minimize civilian casualties.  所有攻击部队被要求尽可能减少平民伤亡
 minimize losses in our own company while maximize those of the rival  低估我方损失而高估对手损失
 Sore losers minimized the other team's victory.  愤愤不平的失败者对获胜方的胜利表现出鄙夷</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>mint</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>n. 巨额： an abundant amount, especially of money
-adj. 无损坏的： unmarred as if fresh from a mint本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>worth a mint  价值连城
-a second-handed laptop in mint condition  一台几乎全新的二手笔记本电脑</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+adj. 无损坏的： unmarred as if fresh from a mint</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>worth a mint  价值连城</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>miniscule</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>adj. 极小的： very small</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>a miniscule progress  极小的进步</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>minute</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>adj. 仔细的，谨小慎微的： characterized by careful scrutiny and close examination
 adj. 小的，不重要的： very small or of small importance</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>a minute description of the setting of the story  故事背景的详细介绍
 It is not sagacious to invest excessively in minute details.   过分投入于不重要的细枝末节上是不明智的</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>minutia</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>n. 次要的细节，小事： a minute or minor detail</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>plagued by minutiae  被不重要的细节困扰</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>mirage</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>n. 海市蜃楼，幻想： something illusory and unattainable like a mirage</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>Reunion with her husband has become a mirage.   与他丈夫重逢已是可望而不可及的幻象
 A peacefulsolution proved to be a mirage.   和平解决问题是不可能的了</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>mire</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>n. 困境： a difficult, puzzling, or embarrassing situation from which there is no easy escape
 vt. 使陷入困境，拖后腿： to hamper or hold back as if by mire</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>stuck in a mire of emotional dependency  陷于感情依赖的困境中
 be mired in the past  陷于过去的回忆不能自拔</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>mirth</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>n. 欢乐，欢笑： gladness or gaiety as shown by or accompanied with laughter</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>a man of little mirth  不苟言笑之人</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>misanthropic</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>adj. 反人类的： having or showing a deep distrust of human beings and their motives</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>a solitary and misanthropic artist  一个孤立的反人类艺术家</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>misbehaving</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>adj. 调皮的，行为不端的： engaging in or marked by childish misbehavior</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>a new approach for disciplining a chronically misbehaving child  一个教育调皮小孩的新方法</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>mischievous</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>adj. 调皮的，调皮的： playful in a naughty or teasing way
-adj. 有害的： causing harm or trouble</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>The mischievous child broke the vase.  调皮的孩子打碎了花瓶
-mischievous rumors that defame him  恶意中伤他的谣言</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_2.xlsx
+++ b/result/生词本导入模版_2.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,41 +422,41 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>单词</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>含义（可不填）</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>例句（可不填）</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>kidnap</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>vt. 绑架勒索： to seize and detain by unlawful force or fraud and often with a demand for ransom</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>the child was kidnapped and held for ransom  歹徒绑架了孩子，并且向家属勒索赎金</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>GRE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>kidnap</t>
+          <t>kindle</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vt. 绑架勒索： to seize and detain by unlawful force or fraud and often with a demand for ransom</t>
+          <t>vt. 点燃： to build or fuel (a fire); to set fire to; ignite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>the child was kidnapped and held for ransom  歹徒绑架了孩子，并且向家属勒索赎金</t>
+          <t>kindle interest  激发兴趣</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,17 +468,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>kindle</t>
+          <t>kindred</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vt. 点燃： to build or fuel (a fire); to set fire to; ignite</t>
+          <t>adj. 类似的；具有相似或相近的起源，本性或性质的： having a similar or related origin, nature, orcharacter</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>kindle interest  激发兴趣</t>
+          <t>finally found people who were kindred spirits when she joined the hiking club  她加入登山俱乐部的时候</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -502,17 +490,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>kindred</t>
+          <t>knack</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>adj. 类似的；具有相似或相近的起源，本性或性质的： having a similar or related origin, nature, orcharacter</t>
+          <t>n. 诀窍，聪明的做法： a clever trick or stratagem; a clever way of doing something</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>finally found people who were kindred spirits when she joined the hiking club  她加入登山俱乐部的时候</t>
+          <t>She's tried every knack in Cupid's book to get her guy to marry her.   她试过了所有爱情三十六计，希望那男人娶她</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -524,17 +512,18 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>knack</t>
+          <t>knead</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>n. 诀窍，聪明的做法： a clever trick or stratagem; a clever way of doing something</t>
+          <t>vt. 揉捏，塑造： to make or shape by or as if by folding, pressing, and stretching with the hands</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>She's tried every knack in Cupid's book to get her guy to marry her.   她试过了所有爱情三十六计，希望那男人娶她</t>
+          <t>knead dough  揉面团
+kneading a painful calf muscle  给疼痛的小腿肌肉按摩</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -546,18 +535,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>knead</t>
+          <t>knit</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>vt. 揉捏，塑造： to make or shape by or as if by folding, pressing, and stretching with the hands</t>
+          <t>vt. 编织（纱线）： to form by interlacing yarn or thread in a series of connected loops with needles
+vt. 连接，联系： to join closely; unite securely</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>knead dough  揉面团
-kneading a painful calf muscle  给疼痛的小腿肌肉按摩</t>
+          <t>She knitted him a sweater for Christmas.   圣诞节她为他缝了一件毛衣
+Sport knits the whole family close together.  体育将整个家庭紧紧地联系在一起</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -569,19 +559,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>knit</t>
+          <t>knotty</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>vt. 编织（纱线）： to form by interlacing yarn or thread in a series of connected loops with needles
-vt. 连接，联系： to join closely; unite securely</t>
+          <t>adj. 多结的，复杂的，困难的：marked by or full of knots especially: so full of difficulties andcomplications as to be likely to defy solution</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>She knitted him a sweater for Christmas.   圣诞节她为他缝了一件毛衣
-Sport knits the whole family close together.  体育将整个家庭紧紧地联系在一起</t>
+          <t>The candidates cautiously gave their views on an array of knotty issues.   候选人就一系列的困难问题谨慎地给出了自己的看法</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -593,19 +581,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>knotty</t>
+          <t>kudos</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>adj. 多结的，复杂的，困难的：marked by or full of knots especially: so full of difficulties andcomplications as to be likely to defy solution</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>The candidates cautiously gave their views on an array of knotty issues.   候选人就一系列的困难问题谨慎地给出了自己的看法</t>
-        </is>
-      </c>
+          <t>n. 名望，名声： fame and renown resulting from an act or achievement</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -615,15 +599,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>kudos</t>
+          <t>labile</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>n. 名望，名声： fame and renown resulting from an act or achievement</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>adj. 易变的，不稳定的： continually undergoing chemical, physical, or biological change; unstable</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>labile mineral  不稳定的矿物质
+an emotionally labile person  一个多愁善感的人</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -633,45 +622,44 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>labile</t>
+          <t>laborious</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>adj. 易变的，不稳定的： continually undergoing chemical, physical, or biological change; unstable</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>labile mineral  不稳定的矿物质
-an emotionally labile person  一个多愁善感的人</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>laborious</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
         <is>
           <t>adj. 勤奋的： hard-working; industrious
 adj. 费力的： marked by or requiring long, hard work</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>The volunteers have been commendably laborious in their cleanup of the beach.   清理海滩 的 志愿者们的勤奋努力值得赞扬
 He was gentle and kindly, living a laborious life in his Paris flat.   他是一个温柔、好心的人，住在巴黎的公寓里过着勤奋的生活
 the laborious task of cleaning up the oil spill  清除泄露石油的艰苦工作</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>labyrinthine</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>adj. 迷宫似的，复杂曲折的： of, relating to, resembling, or constituting a labyrinth; extremely complexor tortuous in structure</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>The labyrinthine political situation of Middle East left us totally befuddled.   中东地区复杂迷离的政治局势让我们彻底迷惑了</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -681,17 +669,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>labyrinthine</t>
+          <t>lacerate</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>adj. 迷宫似的，复杂曲折的： of, relating to, resembling, or constituting a labyrinth; extremely complexor tortuous in structure</t>
+          <t>vt. 使非常痛苦： to cause deep emotional pain to; distress</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>The labyrinthine political situation of Middle East left us totally befuddled.   中东地区复杂迷离的政治局势让我们彻底迷惑了</t>
+          <t>He was born into a family already lacerated with tensions and divisions.   他出生在一个已经被冲突和分裂折磨不堪的家庭当中</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -703,19 +691,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>lacerate</t>
+          <t>lackluster</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>vt. 使非常痛苦： to cause deep emotional pain to; distress</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>He was born into a family already lacerated with tensions and divisions.   他出生在一个已经被冲突和分裂折磨不堪的家庭当中</t>
-        </is>
-      </c>
+          <t>adj. 黯淡无光泽的： lacking brightness, luster, or vitality</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -725,15 +709,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>lackluster</t>
+          <t>laconic</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>adj. 黯淡无光泽的： lacking brightness, luster, or vitality</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>adj. 简洁（以至于显得粗鲁或难以理解）的： using or involving the use of a minimum of words:concise to the point of seeming rude or mysterious</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>His mentor’s comment tends to be laconic but very much to the point.  他导师的点评很简短，但是却总能说到点子上</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -743,17 +731,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>laconic</t>
+          <t>lachrymose</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>adj. 简洁（以至于显得粗鲁或难以理解）的： using or involving the use of a minimum of words:concise to the point of seeming rude or mysterious</t>
+          <t>adj.催人泪下的，悲伤的：tending to cause tears, mournful</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>His mentor’s comment tends to be laconic but very much to the point.  他导师的点评很简短，但是却总能说到点子上</t>
+          <t>The lachrymose mourners at the funeral required a steady supply of tissues.   葬礼上多愁善感的哀悼者对纸巾提出了巨大的需求</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -765,17 +753,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>lachrymose</t>
+          <t>lambaste</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>adj.催人泪下的，悲伤的：tending to cause tears, mournful</t>
+          <t>vt. 严厉斥责： to scold sharply; berate</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>The lachrymose mourners at the funeral required a steady supply of tissues.   葬礼上多愁善感的哀悼者对纸巾提出了巨大的需求</t>
+          <t>Critics lambasted his performance.   评论家严厉斥责了他的表演</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -787,45 +775,45 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>lambaste</t>
+          <t>lament</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>vt. 严厉斥责： to scold sharply; berate</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Critics lambasted his performance.   评论家严厉斥责了他的表演</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>lament</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
         <is>
           <t>n. 悼词： a composition expressing one's grief over a loss
 n. 抱怨： an expression of dissatisfaction, pain, or resentment
 vi. 哀悼，表达痛苦或遗憾： to express sorrow or regret; mourn</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>her lament for her grandmother  她为她祖母写的悼词
 the career woman's lament that there aren't any good men left  职场女性的抱怨：好男人都死光了
 lament an innocent death  为无辜的死者而悲痛</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>lamentable</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>adj. 值得惋惜的，悲哀的： inspiring or deserving of lament or regret; deplorable or pitiable; mournful</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>The lamentable cries of the women for their lost sons were heard throughout the village.  女 人 们 由 于丧子之痛的哀嚎响彻整个山谷</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -835,17 +823,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>lamentable</t>
+          <t>lampoon</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>adj. 值得惋惜的，悲哀的： inspiring or deserving of lament or regret; deplorable or pitiable; mournful</t>
+          <t>n 讽刺： a harsh satire usually directed against an individual</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>The lamentable cries of the women for their lost sons were heard throughout the village.  女 人 们 由 于丧子之痛的哀嚎响彻整个山谷</t>
+          <t>a lampoon of the movie business at the time  对当时电影产业的一种讽刺</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -857,17 +845,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>lampoon</t>
+          <t>languid</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>n 讽刺： a harsh satire usually directed against an individual</t>
+          <t>adj. 没精打采的，虚弱的： lacking energy or vitality; weak</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>a lampoon of the movie business at the time  对当时电影产业的一种讽刺</t>
+          <t>be languid for weeks after surgery  术后的几周都无精打采的</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -879,17 +867,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>languid</t>
+          <t>languish</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>adj. 没精打采的，虚弱的： lacking energy or vitality; weak</t>
+          <t>vi. 变得衰弱： to be or become feeble, weak, or enervated</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>be languid for weeks after surgery  术后的几周都无精打采的</t>
+          <t>languishing during the prolonged heat wave  在持续的热浪下变得虚弱</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -901,17 +889,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>languish</t>
+          <t>languor</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>vi. 变得衰弱： to be or become feeble, weak, or enervated</t>
+          <t>n. 懒惰： physical or mental inertness
+n. 衰弱： weakness or weariness of body or mind</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>languishing during the prolonged heat wave  在持续的热浪下变得虚弱</t>
+          <t>He enjoyed the languor brought on by a hot summer afternoon.   他很享受夏日午后的慵懒
+The tropical heat sapped our strength, leaving us in a state of unaccustomed languor.   热 带 的 炎 热 气 候消磨着我们的力量，让我们感到一阵虚弱的不适</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -923,19 +913,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>languor</t>
+          <t>lank</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>n. 懒惰： physical or mental inertness
-n. 衰弱： weakness or weariness of body or mind</t>
+          <t>adj. 细长瘦弱的： long, straight, and limp; not stiff in structure
+adj. 不僵硬的，柔软松弛的： not stiff in structure</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>He enjoyed the languor brought on by a hot summer afternoon.   他很享受夏日午后的慵懒
-The tropical heat sapped our strength, leaving us in a state of unaccustomed languor.   热 带 的 炎 热 气 候消磨着我们的力量，让我们感到一阵虚弱的不适</t>
+          <t>a woman with long, lank hair  有着长而稀疏头发的女子
+Right after a shower, her lank hair hung down to her shoulders.   刚出浴的她柔软的头发搭在她的肩上</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -947,19 +937,19 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>lank</t>
+          <t>lapse</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>adj. 细长瘦弱的： long, straight, and limp; not stiff in structure
-adj. 不僵硬的，柔软松弛的： not stiff in structure</t>
+          <t>n. 小过失： a slight error typically due to forgetfulness or inattention
+v. 结束，终止： to come to an end</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>a woman with long, lank hair  有着长而稀疏头发的女子
-Right after a shower, her lank hair hung down to her shoulders.   刚出浴的她柔软的头发搭在她的肩上</t>
+          <t>a lapse in table manner  餐桌礼仪的小过错
+The contract will lapse at the end of the year.   合同将于年底到期</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -971,19 +961,19 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>lapse</t>
+          <t>largesse</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>n. 小过失： a slight error typically due to forgetfulness or inattention
-v. 结束，终止： to come to an end</t>
+          <t>n. 捐赠物： something given to someone without expectation of a return
+n. 慷慨： liberality in giving or willingness to give</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>a lapse in table manner  餐桌礼仪的小过错
-The contract will lapse at the end of the year.   合同将于年底到期</t>
+          <t>The alumna's huge bequest was an unexpected largess.  校友们的巨额遗赠是一笔意料之外的财富
+be noted for his largesse  因慷慨而闻名</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -995,47 +985,45 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>largesse</t>
+          <t>lash</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>n. 捐赠物： something given to someone without expectation of a return
-n. 慷慨： liberality in giving or willingness to give</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>The alumna's huge bequest was an unexpected largess.  校友们的巨额遗赠是一笔意料之外的财富
-be noted for his largesse  因慷慨而闻名</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>lash</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
         <is>
           <t>n. 击打： a hard strike with a part of the body or an instrument
 v. 猛击，撞击： to strike against with force or violence
 vt. 捆扎： to bind with or as if with a line</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>suddenly felt the lash of her drunken husband's hand on her cheek  突然感觉到脸颊被醉酒的丈夫扇了一耳光
 All night long a barrage of rain lashed the windows.  倾盆大雨整夜敲击着窗户
 Secure the anchor by lashing it to the rail.   通过将锚绑在栏杆上使其稳固。</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>lassitude</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>n. 乏力，没精打采： a state or feeling of weariness, diminished energy, or listlessness</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Symptoms of anaemia include general fatigue and lassitude.  贫血的通常症状包括体虚和乏力</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1045,17 +1033,18 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>lassitude</t>
+          <t>latent</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>n. 乏力，没精打采： a state or feeling of weariness, diminished energy, or listlessness</t>
+          <t>adj. 潜在的，不活跃的： present or potential but not evident or active</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Symptoms of anaemia include general fatigue and lassitude.  贫血的通常症状包括体虚和乏力</t>
+          <t>a latent infection  潜伏性传染病
+He has a latent talent for acting that he hasn't had a chance to</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1067,18 +1056,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>latent</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>adj. 潜在的，不活跃的： present or potential but not evident or active</t>
+          <t>n. （行动或言论）自由： freedom from normal restraints, limitations, or regulations</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>a latent infection  潜伏性传染病
-He has a latent talent for acting that he hasn't had a chance to</t>
+          <t>Students are allowed considerable latitude in choosing courses.   学生在选课时被给予相当大的自由度</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1090,17 +1078,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>laudatory</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>n. （行动或言论）自由： freedom from normal restraints, limitations, or regulations</t>
+          <t>adj. 表示赞扬的： of, relating to, or expressing praise</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Students are allowed considerable latitude in choosing courses.   学生在选课时被给予相当大的自由度</t>
+          <t>a laudatory review of the new play  对新剧目的赞扬性的评论</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1112,17 +1100,19 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>laudatory</t>
+          <t>lavish</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>adj. 表示赞扬的： of, relating to, or expressing praise</t>
+          <t>adj. 奢侈大量的： characterized by or produced with extravagance and profusion
+v. 挥霍，浪费： to give readily and in large quantities; to use up carelessly</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>a laudatory review of the new play  对新剧目的赞扬性的评论</t>
+          <t>lavish buffet  奢侈的自助餐
+a great actor who lavished his talent in lousy movies  将才华浪费在低劣电影上的影星</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1134,19 +1124,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>lavish</t>
+          <t>leaven</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>adj. 奢侈大量的： characterized by or produced with extravagance and profusion
-v. 挥霍，浪费： to give readily and in large quantities; to use up carelessly</t>
+          <t>vt. 用轻松、活泼或变更的影响力来充斥： to mingle or permeate with some modifying, alleviating, orvivifying element</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>lavish buffet  奢侈的自助餐
-a great actor who lavished his talent in lousy movies  将才华浪费在低劣电影上的影星</t>
+          <t>He needs to leaven his speeches with more humor.  他需要在演讲中再加入点幽默元素。</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1158,17 +1146,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>leaven</t>
+          <t>leer</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>vt. 用轻松、活泼或变更的影响力来充斥： to mingle or permeate with some modifying, alleviating, orvivifying element</t>
+          <t>vi. 一瞥，斜眼看： to cast a sidelong glance</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>He needs to leaven his speeches with more humor.  他需要在演讲中再加入点幽默元素。</t>
+          <t>He gave her a leering look.   他瞥了她一眼</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1180,17 +1168,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>leer</t>
+          <t>leery</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>vi. 一瞥，斜眼看： to cast a sidelong glance</t>
+          <t>adj. 怀疑的，不信任的： suspicious or distrustful; wary</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>He gave her a leering look.   他瞥了她一眼</t>
+          <t>be leery of strangers  对陌生人的怀疑</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1202,17 +1190,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>leery</t>
+          <t>legacy</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>adj. 怀疑的，不信任的： suspicious or distrustful; wary</t>
+          <t>n. 遗产： something handed down from an ancestor or a predecessor or from the past</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>be leery of strangers  对陌生人的怀疑</t>
+          <t>the legacy of the ancient philosophers  古代哲学家们的思想遗产</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1224,17 +1212,19 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>legacy</t>
+          <t>legend</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>n. 遗产： something handed down from an ancestor or a predecessor or from the past</t>
+          <t>n. 传奇，传说： a popular myth of recent origin
+n. 图例： an explanatory list of the symbols on a map or chart</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>the legacy of the ancient philosophers  古代哲学家们的思想遗产</t>
+          <t xml:space="preserve">Some ancient civilizations had legends about spirits that inhabited trees and rocks.  许 多 古 老 的 文 明都有着关于寄居于树木、岩石之中的灵魂的传说
+The legend in the science textbook indicated that the accompanying picture had been enlarged by 1000%.  </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1246,19 +1236,19 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>legend</t>
+          <t>legion</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>n. 传奇，传说： a popular myth of recent origin
-n. 图例： an explanatory list of the symbols on a map or chart</t>
+          <t>n. 大量的人，（尤指）军团： a large body of men and women organized for land warfare
+adj. 大量的：many, numerous</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Some ancient civilizations had legends about spirits that inhabited trees and rocks.  许 多 古 老 的 文 明都有着关于寄居于树木、岩石之中的灵魂的传说
-The legend in the science textbook indicated that the accompanying picture had been enlarged by 1000%.  </t>
+          <t>joined the French Foreign Legion  加入了法国外籍军团
+The problems are legion.  问题不计其数</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1270,19 +1260,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>legion</t>
+          <t>lenient</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>n. 大量的人，（尤指）军团： a large body of men and women organized for land warfare
-adj. 大量的：many, numerous</t>
+          <t>adj. 宽大仁慈的： inclined not to be harsh or strict; merciful, generous, or indulgent</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>joined the French Foreign Legion  加入了法国外籍军团
-The problems are legion.  问题不计其数</t>
+          <t>the lenient sentences  仁慈的审判</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1294,17 +1282,18 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>lenient</t>
+          <t>lethal</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>adj. 宽大仁慈的： inclined not to be harsh or strict; merciful, generous, or indulgent</t>
+          <t>adj. 非常有害的，致命的： extremely harmful; devastating</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>the lenient sentences  仁慈的审判</t>
+          <t>This dagger is lethal.   这把匕首是致命的武器
+launched a lethal attack  发动了致命的进攻</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1316,18 +1305,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>lethal</t>
+          <t>lethargic</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>adj. 非常有害的，致命的： extremely harmful; devastating</t>
+          <t>adj. 没精打采的，行动迟缓的： of, relating to, or characterized by lethargy, sluggish</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>This dagger is lethal.   这把匕首是致命的武器
-launched a lethal attack  发动了致命的进攻</t>
+          <t>a big nice meal always makes me feel lethargic and sleepy  一顿大餐吃完总是让我既慵懒又想睡</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1339,17 +1327,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>lethargic</t>
+          <t>levelheaded</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>adj. 没精打采的，行动迟缓的： of, relating to, or characterized by lethargy, sluggish</t>
+          <t>adj. 明智的： characteristically self-composed and sensible</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>a big nice meal always makes me feel lethargic and sleepy  一顿大餐吃完总是让我既慵懒又想睡</t>
+          <t>a levelheaded assessment of the problem  对于问题的一个明智的评估</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1361,17 +1349,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>levelheaded</t>
+          <t>levity</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>adj. 明智的： characteristically self-composed and sensible</t>
+          <t>n. 轻浮： excessive or unseemly frivolity</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>a levelheaded assessment of the problem  对于问题的一个明智的评估</t>
+          <t>The teachers disapprove of any displays of levity during school assemblies.   老师们不允许学生在学校聚会过程中表现出任何轻浮的态度</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1383,17 +1371,19 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>levity</t>
+          <t>liability</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>n. 轻浮： excessive or unseemly frivolity</t>
+          <t>n. 责任： the quality or state of being liable
+n. 障碍，不利条件： a feature of someone or something that creates difficulty for achieving success</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>The teachers disapprove of any displays of levity during school assemblies.   老师们不允许学生在学校聚会过程中表现出任何轻浮的态度</t>
+          <t>The company is trying to reduce its liability in this case.   在这个案件中，公司试图减少他们的责任
+Their chief asset has now become a considerable liability.   他们最大的优点如今已成了不可小觑的负担</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1405,19 +1395,19 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>liability</t>
+          <t>liberal</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>n. 责任： the quality or state of being liable
-n. 障碍，不利条件： a feature of someone or something that creates difficulty for achieving success</t>
+          <t>adj. 思想前卫的： not bound by traditional ways or beliefs
+adj. 慷慨的，大方的： marked by generosity</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>The company is trying to reduce its liability in this case.   在这个案件中，公司试图减少他们的责任
-Their chief asset has now become a considerable liability.   他们最大的优点如今已成了不可小觑的负担</t>
+          <t>parents who take a very liberal attitude toward letting their children stay out late  思想开放，同意让他们的小孩晚归的家长们
+a doctor who has been very liberal in dispensing low-cost care to patients who could not otherwise afford it</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1429,19 +1419,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>liberal</t>
+          <t>libertine</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>adj. 思想前卫的： not bound by traditional ways or beliefs
-adj. 慷慨的，大方的： marked by generosity</t>
+          <t>n. 放荡不羁者： one who acts without moral restraint; a dissolute person</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>parents who take a very liberal attitude toward letting their children stay out late  思想开放，同意让他们的小孩晚归的家长们
-a doctor who has been very liberal in dispensing low-cost care to patients who could not otherwise afford it</t>
+          <t>The legend of Don Juan depicts him as a playboy and libertine.   有关唐璜的传说把他描绘成一个放荡不羁的花花公子</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1453,17 +1441,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>libertine</t>
+          <t>licentious</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>n. 放荡不羁者： one who acts without moral restraint; a dissolute person</t>
+          <t>adj. 放荡的，性欲强的： lacking legal or moral restraints ; having a strong sexual desire</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>The legend of Don Juan depicts him as a playboy and libertine.   有关唐璜的传说把他描绘成一个放荡不羁的花花公子</t>
+          <t>a moralist who decried what she regarded as the licentious and corrupt culture of the entertainmentindustry  一个公开谴责在她看来无比堕落和放荡的娱乐圈文化的道德家</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1475,17 +1463,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>licentious</t>
+          <t>liken</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>adj. 放荡的，性欲强的： lacking legal or moral restraints ; having a strong sexual desire</t>
+          <t>vt. 显示相似，比较： to see, mention, or show as similar; compare</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>a moralist who decried what she regarded as the licentious and corrupt culture of the entertainmentindustry  一个公开谴责在她看来无比堕落和放荡的娱乐圈文化的道德家</t>
+          <t>Life is often likened to a journey.   生活经常被比作一次旅行</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1497,17 +1485,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>liken</t>
+          <t>limber</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>vt. 显示相似，比较： to see, mention, or show as similar; compare</t>
+          <t>adj. 可塑的，柔软的： capable of being shaped: flexible</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Life is often likened to a journey.   生活经常被比作一次旅行</t>
+          <t>She shaped the basket out of limber branches.  她用柔软的树枝编了一个筐</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1519,44 +1507,46 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>limber</t>
+          <t>limp</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>adj. 可塑的，柔软的： capable of being shaped: flexible</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>She shaped the basket out of limber branches.  她用柔软的树枝编了一个筐</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>limp</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
         <is>
           <t>adj. 柔软的，松散的： lacking firm texture, substance, or structure
 adj. 软弱的，没有精神的： lacking strength or firmness; weak or spiritless
 vi. 跛行，艰难地行走： to move or proceed haltingly or unsteadily</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Her hair hung limp about her shoulders.   她的头发软沓沓地垂在肩上
 The team's limp performance has many people calling for the head coach's resignation.  队 伍 不 给 力的表现让许多人呼吁教练下课</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>limpid</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>adj. 透明清澈的： characterized by transparent clearness
+adj. 镇定的，淡定的： free from emotional or mental agitation</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>limpid streams  清澈的小溪
+the limpid outlook of a man who is at peace with himself as he awaits death  一个人在平静等待死亡的过程当中所体现出来的淡然的世界观</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1566,19 +1556,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>limpid</t>
+          <t>linger</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>adj. 透明清澈的： characterized by transparent clearness
-adj. 镇定的，淡定的： free from emotional or mental agitation</t>
+          <t>vi. 磨蹭，闲荡： to proceed slowly; saunter</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>limpid streams  清澈的小溪
-the limpid outlook of a man who is at peace with himself as he awaits death  一个人在平静等待死亡的过程当中所体现出来的淡然的世界观</t>
+          <t>fans lingered outside the door  粉丝们在门外徘徊</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1590,17 +1578,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>linger</t>
+          <t>lissome</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>vi. 磨蹭，闲荡： to proceed slowly; saunter</t>
+          <t>adj. 柔软的： easily bent; supple</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>fans lingered outside the door  粉丝们在门外徘徊</t>
+          <t>Rattan is such a lissome material that it can be used for all manner of furniture and baskets.  藤 是 一种非常柔软而有韧性的材料，因此可以被用于形形色色的家具和篮子之中</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1612,17 +1600,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>lissome</t>
+          <t>list</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>adj. 柔软的： easily bent; supple</t>
+          <t>v. 倾斜： to set or cause to be at an angle</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Rattan is such a lissome material that it can be used for all manner of furniture and baskets.  藤 是 一种非常柔软而有韧性的材料，因此可以被用于形形色色的家具和篮子之中</t>
+          <t>The sudden lift of the load on the deck listed the ship badly.   甲板上货物被突然提起，船陡然倾斜</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1634,17 +1622,19 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>lithe</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>v. 倾斜： to set or cause to be at an angle</t>
+          <t>adj. 敏捷的，轻盈的： characterized by easy flexibility and grace
+adj. 柔软的： easily bent or flexed</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>The sudden lift of the load on the deck listed the ship badly.   甲板上货物被突然提起，船陡然倾斜</t>
+          <t>lithe dancers  灵活优雅的舞者
+lithe branches  柔软的枝条</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1656,19 +1646,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>lithe</t>
+          <t>loath</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>adj. 敏捷的，轻盈的： characterized by easy flexibility and grace
-adj. 柔软的： easily bent or flexed</t>
+          <t>adj. 不情愿的，讨厌的： unwilling or reluctant; disinclined</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>lithe dancers  灵活优雅的舞者
-lithe branches  柔软的枝条</t>
+          <t>I was loath to accept the fact that he had been killed in a terrorist attack.   我很不情愿地接受了他在一场恐怖袭击中丧生的事实</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1680,17 +1668,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>loath</t>
+          <t>loathe</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>adj. 不情愿的，讨厌的： unwilling or reluctant; disinclined</t>
+          <t>vt. 厌恶： to dislike someone or something greatly; abhor</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>I was loath to accept the fact that he had been killed in a terrorist attack.   我很不情愿地接受了他在一场恐怖袭击中丧生的事实</t>
+          <t>I loathe having to do this.  我鄙视不得不这样做。</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1702,19 +1690,15 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>loathe</t>
+          <t>lofty</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>vt. 厌恶： to dislike someone or something greatly; abhor</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>I loathe having to do this.  我鄙视不得不这样做。</t>
-        </is>
-      </c>
+          <t>adj. 崇高的： elevated in character and spirit, noble</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1724,15 +1708,21 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>lofty</t>
+          <t>loll</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>adj. 崇高的： elevated in character and spirit, noble</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>vi. 懒洋洋地行动： to act or move in a lax, lazy, or indolent manner
+vi. 偷懒，打发时间： to spend time doing nothing</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>He lolled back in his comfortable chair.  他懒洋洋地倚在他舒适的椅子上
+Some members of the decorating committee were hard at work, and others were just lolling about.   装修队的一部分人在很努力的工作，另一些则在偷懒</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1742,46 +1732,44 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>loll</t>
+          <t>lopsided</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>vi. 懒洋洋地行动： to act or move in a lax, lazy, or indolent manner
-vi. 偷懒，打发时间： to spend time doing nothing</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>He lolled back in his comfortable chair.  他懒洋洋地倚在他舒适的椅子上
-Some members of the decorating committee were hard at work, and others were just lolling about.   装修队的一部分人在很努力的工作，另一些则在偷懒</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>lopsided</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
         <is>
           <t>adj. 歪的，倾斜的： leaning to one side
 adj.不平衡的，不协调的： lacking in balance, symmetry, or proportion</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>The portrait in the foyer was lopsided.  门厅里的画像挂歪了
 The arrangement of the furniture was lopsided.  家具的摆放太不协调了
 a lopsided score of 4-0 四比零的压倒比分</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>loquacious</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>adj. 话多的： given to fluent or excessive talk</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Sometimes the loquacious talk show host barely lets her guests get a word in.   有时候多话的脱口秀主持人让她的客人一句话都插不进来</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1791,17 +1779,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>loquacious</t>
+          <t>loutish</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>adj. 话多的： given to fluent or excessive talk</t>
+          <t>adj. 粗鲁的： having the characteristics of a lout; awkward, stupid, and boorish</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Sometimes the loquacious talk show host barely lets her guests get a word in.   有时候多话的脱口秀主持人让她的客人一句话都插不进来</t>
+          <t>a boy with a loutish air  一个举止粗鲁的男孩</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1813,17 +1801,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>loutish</t>
+          <t>lubricate</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>adj. 粗鲁的： having the characteristics of a lout; awkward, stupid, and boorish</t>
+          <t>vt. 使润滑： to coat (something) with a slippery substance in order to reduce friction</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>a boy with a loutish air  一个举止粗鲁的男孩</t>
+          <t>lubricate the gears  给齿轮打润滑油</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1835,17 +1823,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>lubricate</t>
+          <t>lucid</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>vt. 使润滑： to coat (something) with a slippery substance in order to reduce friction</t>
+          <t>adj. 有光亮的： suffused with light</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>lubricate the gears  给齿轮打润滑油</t>
+          <t xml:space="preserve">Those lucid bands that spread across the arctic sky are known as aurora borealis, or the northern lights.  </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1857,17 +1845,19 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>lucid</t>
+          <t>lug</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>adj. 有光亮的： suffused with light</t>
+          <t>vt. 拖动，拉动： to cause to follow by applying steady force on
+vt. 费力搬运： to carry laboriously</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Those lucid bands that spread across the arctic sky are known as aurora borealis, or the northern lights.  </t>
+          <t xml:space="preserve">lugged the lawn mower out into the backyard  把割草机拖进院子
+I don't understand why he's always lugging all of his books around when his locker is right over there.  </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1879,21 +1869,15 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>lug</t>
+          <t>lugubrious</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>vt. 拖动，拉动： to cause to follow by applying steady force on
-vt. 费力搬运： to carry laboriously</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">lugged the lawn mower out into the backyard  把割草机拖进院子
-I don't understand why he's always lugging all of his books around when his locker is right over there.  </t>
-        </is>
-      </c>
+          <t>adj. （故作夸张的）悲哀的： mournful, dismal, or gloomy, especially to an exaggerated or ludicrous</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1903,15 +1887,21 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>lugubrious</t>
+          <t>lull</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>adj. （故作夸张的）悲哀的： mournful, dismal, or gloomy, especially to an exaggerated or ludicrous</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
+          <t>n. 相对平静时期，间隙： a momentary halt in an activity
+vt. 使镇静，使安心： to free from distress or disturbance</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">the lull before the storm  暴风雨前的平静
+The absence of attacks for such an extended period had lulled the nation into a false sense of security.  </t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1921,19 +1911,19 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>lull</t>
+          <t>lullaby</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>n. 相对平静时期，间隙： a momentary halt in an activity
+          <t>n. 催眠曲： a song to quiet children or lull them to sleep
 vt. 使镇静，使安心： to free from distress or disturbance</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">the lull before the storm  暴风雨前的平静
-The absence of attacks for such an extended period had lulled the nation into a false sense of security.  </t>
+          <t>sang a lullaby to the baby every night  每晚都给孩子唱摇篮曲
+reclining peacefully on the deck, lullabied by the gentle motion of the ship  躺卧在甲板上，随着船轻轻的颠簸放松下来</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1945,47 +1935,46 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>lullaby</t>
+          <t>lumber</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>n. 催眠曲： a song to quiet children or lull them to sleep
-vt. 使镇静，使安心： to free from distress or disturbance</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>sang a lullaby to the baby every night  每晚都给孩子唱摇篮曲
-reclining peacefully on the deck, lullabied by the gentle motion of the ship  躺卧在甲板上，随着船轻轻的颠簸放松下来</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>lumber</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
         <is>
           <t>n. 木材： tree logs as prepared for human use
 vi. 笨拙地行动： to walk or move with heavy clumsiness
 vi. 使负担（从而拖累）： to place a weight or burden on</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>A huge amount of lumber will be needed to build the house.   建这栋房子需要大量的木材
 The elephant lumbered through the jungle.  大象缓缓地穿越丛林
 lumber the expedition with unnecessary equipment and supplies  不必要的仪器和补给品给此次远征徒增了许多负担</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>luminary</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>n. 杰出人物： a person who has achieved eminence in a specific field</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Buddhist luminary  佛学大师
+Luminaries from the worlds of sports, entertainment, and politics were atthe gala.   全球体育界、娱乐圈和政界的名人都出席了此次盛会</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1995,18 +1984,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>luminary</t>
+          <t>lurch</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>n. 杰出人物： a person who has achieved eminence in a specific field</t>
+          <t>v. 蹒跚： to move forward while swaying from side to side</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Buddhist luminary  佛学大师
-Luminaries from the worlds of sports, entertainment, and politics were atthe gala.   全球体育界、娱乐圈和政界的名人都出席了此次盛会</t>
+          <t>The ship lurched in the storm.   船在风暴中摇摆前行</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2018,17 +2006,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>lurch</t>
+          <t>lurk</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>v. 蹒跚： to move forward while swaying from side to side</t>
+          <t>vi. 潜伏： to lie in wait in a place of concealment especially for an evil purpose</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>The ship lurched in the storm.   船在风暴中摇摆前行</t>
+          <t>Dangers lurk in the path of wilderness.  在这条荒野的小路上隐伏着危险</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2040,45 +2028,45 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>lurk</t>
+          <t>lush</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>vi. 潜伏： to lie in wait in a place of concealment especially for an evil purpose</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Dangers lurk in the path of wilderness.  在这条荒野的小路上隐伏着危险</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>lush</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
         <is>
           <t>adj. 茂盛的： growing vigorously especially with luxuriant foliage
 adj. 多产的： producing abundantly
 adj. （声音、味道）优美的，令人愉悦的： appealing to the senses</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>lush grass  茂盛的草
 His lush fields were the envy of neighboring farmers.   他富饶多产的土地让邻居羡慕嫉妒恨
 the lush sounds of the orchestra  管弦乐队奏出的悦耳声音</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>lustrous</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>adj. 有光泽的： having a shiny surface or finish</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>lustrous black hair  乌黑光亮的头发</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2088,17 +2076,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>lustrous</t>
+          <t>luxurious</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>adj. 有光泽的： having a shiny surface or finish</t>
+          <t>adj. 豪华的： showing obvious signs of wealth and comfort</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>lustrous black hair  乌黑光亮的头发</t>
+          <t>The luxurious apartment was filled with the latest electronic gadgets and fine works of art.   豪 华 的 公 寓里充斥着最新式的电子产品和精美的艺术作品</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2110,17 +2098,19 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>luxurious</t>
+          <t>lyric</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>adj. 豪华的： showing obvious signs of wealth and comfort</t>
+          <t>n. （可以哼唱的）小曲： a short musical composition for the human voice often with instrumentalaccompaniment
+adj. 如诗歌般流畅甜美的： having a pleasantly flowing quality suggestive of poetry or music</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>The luxurious apartment was filled with the latest electronic gadgets and fine works of art.   豪 华 的 公 寓里充斥着最新式的电子产品和精美的艺术作品</t>
+          <t>The guitarist improvised and sang a gentle lyric while playing.   吉他手在弹奏的过程中即兴创作并哼唱了一首小曲
+The film's lyric photography really enhanced its romantic mood.   电影中如诗歌般的图像效果着实增强了浪漫的氛围</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2132,19 +2122,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>lyric</t>
+          <t>macabre</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>n. （可以哼唱的）小曲： a short musical composition for the human voice often with instrumentalaccompaniment
-adj. 如诗歌般流畅甜美的： having a pleasantly flowing quality suggestive of poetry or music</t>
+          <t>adj. 恐怖的： suggesting the horror of death and decay; gruesome</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>The guitarist improvised and sang a gentle lyric while playing.   吉他手在弹奏的过程中即兴创作并哼唱了一首小曲
-The film's lyric photography really enhanced its romantic mood.   电影中如诗歌般的图像效果着实增强了浪漫的氛围</t>
+          <t>Impressively, Plants vs.   Zombies presented a supposedly macabre themeinsuch anenjoyableway.  令人难忘的是，《植物大战僵尸》将一个本应该十分恐怖的主题用一种如此欢乐的方式呈现出来</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2156,17 +2144,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>macabre</t>
+          <t>macerate</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>adj. 恐怖的： suggesting the horror of death and decay; gruesome</t>
+          <t>vt. 浸泡（以软化）： to make soft by soaking or steeping in a liquid</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Impressively, Plants vs.   Zombies presented a supposedly macabre themeinsuch anenjoyableway.  令人难忘的是，《植物大战僵尸》将一个本应该十分恐怖的主题用一种如此欢乐的方式呈现出来</t>
+          <t>macerate the sample in ethanol  用乙醇浸软试样</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2178,17 +2166,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>macerate</t>
+          <t>maculate</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>vt. 浸泡（以软化）： to make soft by soaking or steeping in a liquid</t>
+          <t>v. 使有斑点，弄脏： to spot, blemish</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>macerate the sample in ethanol  用乙醇浸软试样</t>
+          <t>Her reputation was maculated after the affair with a married man.  自从被指与一个已婚男士有染之后，她的名声受到了影响</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2200,17 +2188,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>maculate</t>
+          <t>maelstrom</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>v. 使有斑点，弄脏： to spot, blemish</t>
+          <t>n. 漩涡： a powerful often violent whirlpool sucking in objects within a given radius</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Her reputation was maculated after the affair with a married man.  自从被指与一个已婚男士有染之后，她的名声受到了影响</t>
+          <t>Their raft got caught in a maelstrom.   他们的筏被一个漩涡卷住了</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2222,17 +2210,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>maelstrom</t>
+          <t>magnificent</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>n. 漩涡： a powerful often violent whirlpool sucking in objects within a given radius</t>
+          <t>adj. 壮丽的： strikingly beautiful or impressive</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Their raft got caught in a maelstrom.   他们的筏被一个漩涡卷住了</t>
+          <t>a magnificent cathedral  宏伟壮观的大教堂</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2244,17 +2232,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>magnificent</t>
+          <t>maladroit</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>adj. 壮丽的： strikingly beautiful or impressive</t>
+          <t>adj. 笨拙的： lacking or showing a lack of nimbleness in using one's hands</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>a magnificent cathedral  宏伟壮观的大教堂</t>
+          <t>a maladroit movement  笨拙的动作</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2266,17 +2254,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>maladroit</t>
+          <t>malaise</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>adj. 笨拙的： lacking or showing a lack of nimbleness in using one's hands</t>
+          <t>n. 不舒服： a vague feeling of bodily discomfort, as at the beginning of an illness</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>a maladroit movement  笨拙的动作</t>
+          <t>He complained of depression, headaches and malaise.   他抱怨说感到沮丧、头痛和身体不适</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2288,17 +2276,19 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>malaise</t>
+          <t>malcontent</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>n. 不舒服： a vague feeling of bodily discomfort, as at the beginning of an illness</t>
+          <t>n. 不满分子： one who is in active opposition to an established order or government
+adj. 不满的： dissatisfied with the existing state of affairs</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>He complained of depression, headaches and malaise.   他抱怨说感到沮丧、头痛和身体不适</t>
+          <t>The chaos was caused by a handful of malcontents.  混乱是由一小撮不满分子引起的
+The film follows three malcontent teenagers around Paris.   电影围绕着三个不满现实的青少年在巴黎展开</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2310,19 +2300,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>malcontent</t>
+          <t>malicious</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>n. 不满分子： one who is in active opposition to an established order or government
-adj. 不满的： dissatisfied with the existing state of affairs</t>
+          <t>adj. 恶意的： given to, marked by, or arising from malice; deliberately harmful</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>The chaos was caused by a handful of malcontents.  混乱是由一小撮不满分子引起的
-The film follows three malcontent teenagers around Paris.   电影围绕着三个不满现实的青少年在巴黎展开</t>
+          <t>spread malicious gossips  散播恶意的流言蜚语</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2334,17 +2322,19 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>malicious</t>
+          <t>malign</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>adj. 恶意的： given to, marked by, or arising from malice; deliberately harmful</t>
+          <t>adj. 恶意的： having or showing a desire to cause someone pain or suffering for the sheer enjoymentof it
+vt. 诽谤： to utter injuriously misleading or false reports about: speak evil of</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>spread malicious gossips  散播恶意的流言蜚语</t>
+          <t>Both parties to the divorce showed a malign desire to make each other's future life utterly miserable.   离婚双方都表露出了恶毒的愿望，希望对方未来的生活陷入彻底的悲剧之中
+the belief that it is possible to win an election without maligning anyone  一种信念，那就是要赢得一场选举就不得不诽谤他人</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2356,19 +2346,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>malign</t>
+          <t>malinger</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>adj. 恶意的： having or showing a desire to cause someone pain or suffering for the sheer enjoymentof it
-vt. 诽谤： to utter injuriously misleading or false reports about: speak evil of</t>
+          <t>vi. 装病以逃避工作： to pretend or exaggerate incapacity or illness (as to avoid duty or work)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Both parties to the divorce showed a malign desire to make each other's future life utterly miserable.   离婚双方都表露出了恶毒的愿望，希望对方未来的生活陷入彻底的悲剧之中
-the belief that it is possible to win an election without maligning anyone  一种信念，那就是要赢得一场选举就不得不诽谤他人</t>
+          <t>He claims he's ill, but I think he's just malingering.   他声称他病了，但我觉得他是装的</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2380,17 +2368,19 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>malinger</t>
+          <t>malleable</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>vi. 装病以逃避工作： to pretend or exaggerate incapacity or illness (as to avoid duty or work)</t>
+          <t>adj. 可塑的： capable of being extended or shaped by beating with a hammer or by the pressure ofrollers
+adj. 易控制的： capable of being altered or controlled by outside forces or influences</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>He claims he's ill, but I think he's just malingering.   他声称他病了，但我觉得他是装的</t>
+          <t>a malleable metal  有延展性的金属
+The cult leader took advantage of the malleable, compliant personalities of his followers.  这 个 头 目 利用了他的信徒们容易被控制和顺从的特征</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2402,19 +2392,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>malleable</t>
+          <t>malodorous</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>adj. 可塑的： capable of being extended or shaped by beating with a hammer or by the pressure ofrollers
-adj. 易控制的： capable of being altered or controlled by outside forces or influences</t>
+          <t>adj. 恶臭的： having an unpleasant smell</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>a malleable metal  有延展性的金属
-The cult leader took advantage of the malleable, compliant personalities of his followers.  这 个 头 目 利用了他的信徒们容易被控制和顺从的特征</t>
+          <t>American musteline will eject amalodorous fluid when startled.   美洲鼬科动物受惊吓时会喷出有恶臭味的液体</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2426,17 +2414,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>malodorous</t>
+          <t>mandatory</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>adj. 恶臭的： having an unpleasant smell</t>
+          <t>adj. 强制的： forcing one's compliance or participation</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>American musteline will eject amalodorous fluid when startled.   美洲鼬科动物受惊吓时会喷出有恶臭味的液体</t>
+          <t>GRE test is mandatory for all students, regardless of their nationality, who wish to apply for graduateschools in the United States.  GRE  是每个申请美国研究生院的学生（无论国籍）所必须参加的考试</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2448,17 +2436,19 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>mandatory</t>
+          <t>mangle</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>adj. 强制的： forcing one's compliance or participation</t>
+          <t>vt. 损毁，使伤残： to injure with deep disfiguring wounds by cutting, tearing, or crushing
+vt. 弄砸： to ruin or spoil through ineptitude or ignorance</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>GRE test is mandatory for all students, regardless of their nationality, who wish to apply for graduateschools in the United States.  GRE  是每个申请美国研究生院的学生（无论国籍）所必须参加的考试</t>
+          <t>His body was mangled beyond recognition.  他的尸体已经被损毁到无法辨认的程度了
+The orchestra had completely mangled Bach’s music.   乐队彻底演砸了巴赫的音乐</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2470,19 +2460,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>mangle</t>
+          <t>mangy</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>vt. 损毁，使伤残： to injure with deep disfiguring wounds by cutting, tearing, or crushing
-vt. 弄砸： to ruin or spoil through ineptitude or ignorance</t>
+          <t>adj. 卑劣的： mean; contemptible</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>His body was mangled beyond recognition.  他的尸体已经被损毁到无法辨认的程度了
-The orchestra had completely mangled Bach’s music.   乐队彻底演砸了巴赫的音乐</t>
+          <t>a mangy trick  卑鄙的手段</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2494,17 +2482,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>mangy</t>
+          <t>mania</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>adj. 卑劣的： mean; contemptible</t>
+          <t>n. 热衷，狂热： an excessively intense enthusiasm, interest, or desire; a craze</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>a mangy trick  卑鄙的手段</t>
+          <t>a mania for neatness  强烈的洁癖</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2516,17 +2504,19 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>mania</t>
+          <t>manifest</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>n. 热衷，狂热： an excessively intense enthusiasm, interest, or desire; a craze</t>
+          <t>adj. 显然的，明显易懂的： clearly apparent to the sight or understanding; obvious
+v. 显现，显露： to make evident or certain by showing or displaying</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>a mania for neatness  强烈的洁癖</t>
+          <t>He is a manifest poseur.  他显然是个装模作样的人
+His frustration is often manifested by a minor facial tic.   他的沮丧通常会从脸部的细微抽搐中表现出来</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2538,21 +2528,15 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>manifest</t>
+          <t>manipulate</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>adj. 显然的，明显易懂的： clearly apparent to the sight or understanding; obvious
-v. 显现，显露： to make evident or certain by showing or displaying</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>He is a manifest poseur.  他显然是个装模作样的人
-His frustration is often manifested by a minor facial tic.   他的沮丧通常会从脸部的细微抽搐中表现出来</t>
-        </is>
-      </c>
+          <t>vt. 巧妙操作： to move, arrange, operate, or control by the hands or by mechanical means, especially</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2562,15 +2546,19 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>manipulate</t>
+          <t>mannered</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>vt. 巧妙操作： to move, arrange, operate, or control by the hands or by mechanical means, especially</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
+          <t>adj. 不自然的，做作的： having an artificial or stilted character</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>a mannered speech  做作的演讲</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2580,17 +2568,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>mannered</t>
+          <t>manumit</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>adj. 不自然的，做作的： having an artificial or stilted character</t>
+          <t>v. 解放（奴隶）： to release from slavery or bondage</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>a mannered speech  做作的演讲</t>
+          <t>Though he was an outspoken defender of liberty, this son of Virginia did not manumit his own slaves untilhe was on his deathbed.   尽管这位维吉尼亚之子公开地支持自由，但他直到临死才释放自己的奴隶</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2602,17 +2590,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>manumit</t>
+          <t>manuscript</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>v. 解放（奴隶）： to release from slavery or bondage</t>
+          <t>n. 手稿： a book, document, or other composition written by hand</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Though he was an outspoken defender of liberty, this son of Virginia did not manumit his own slaves untilhe was on his deathbed.   尽管这位维吉尼亚之子公开地支持自由，但他直到临死才释放自己的奴隶</t>
+          <t>beautiful Latin manuscript on the school's diplomas  学校毕业证书上美丽的手写拉丁文</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2624,44 +2612,44 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>manuscript</t>
+          <t>mar</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>n. 手稿： a book, document, or other composition written by hand</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>beautiful Latin manuscript on the school's diplomas  学校毕业证书上美丽的手写拉丁文</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>mar</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
         <is>
           <t>n.污点，坏点： something that spoils the appearance or completeness of a thing
 vt. 破坏，削弱： to impair the soundness, perfection, or integrity of; spoil</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>mars on the furniture  家具上的污点
 The once flatroad surface is now marred by numerous potholes.   曾经平整的路面如今被坑洞所破坏
 anelection marred by sexual scandal  被性丑闻蒙上阴影的选举</t>
         </is>
       </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>marsh</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>n. 沼泽，湿地： an area of soft, wet, low-lying land</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>The marshes along the coast support a remarkable profusion of plants and animals.  沿 着 海 岸 线 一 带的沼泽为大量的动植物提供了栖息所</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2671,17 +2659,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>marsh</t>
+          <t>martinet</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>n. 沼泽，湿地： an area of soft, wet, low-lying land</t>
+          <t>n. 纪律严明之人： a strict disciplinarian</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>The marshes along the coast support a remarkable profusion of plants and animals.  沿 着 海 岸 线 一 带的沼泽为大量的动植物提供了栖息所</t>
+          <t>He's a retired lieutenant and a bit of a martinet.  他是一个退役的中尉，并且是一个有点纪律严明的人</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2693,19 +2681,16 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>martinet</t>
+          <t>marvel</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>n. 纪律严明之人： a strict disciplinarian</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>He's a retired lieutenant and a bit of a martinet.  他是一个退役的中尉，并且是一个有点纪律严明的人</t>
-        </is>
-      </c>
+          <t>n. 令人惊奇的事物： one that evokes surprise, admiration, or wonder
+v.（因为壮观、美丽等而）表示惊讶： to feel amazement or bewilderment at or about</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2715,16 +2700,19 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>marvel</t>
+          <t>masquerade</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>n. 令人惊奇的事物： one that evokes surprise, admiration, or wonder
-v.（因为壮观、美丽等而）表示惊讶： to feel amazement or bewilderment at or about</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
+          <t>n. 面具，伪装： a display of emotion or behavior that is insincere or intended to deceive</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Although she was deeply bored, she maintained a masquerade of polite interest as her guest droned on.  </t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2734,17 +2722,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>masquerade</t>
+          <t>mash</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>n. 面具，伪装： a display of emotion or behavior that is insincere or intended to deceive</t>
+          <t>v. 捣碎： to cause to become a pulpy mass</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Although she was deeply bored, she maintained a masquerade of polite interest as her guest droned on.  </t>
+          <t>mash potatoesbefore adding it to the mixture  在混合之前捣碎土豆</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2756,17 +2744,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>mash</t>
+          <t>mastery</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>v. 捣碎： to cause to become a pulpy mass</t>
+          <t>n. 技艺超群，精通： possession or display of great skill or technique</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>mash potatoesbefore adding it to the mixture  在混合之前捣碎土豆</t>
+          <t>She has mastery of several languages.   她熟练掌握多种语言</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2778,17 +2766,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>mastery</t>
+          <t>matriculate</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>n. 技艺超群，精通： possession or display of great skill or technique</t>
+          <t>vt. 入学，录取： to admit or be admitted into a group, especially a college or university.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>She has mastery of several languages.   她熟练掌握多种语言</t>
+          <t>matriculate at Princeton  在普林斯顿入学</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2800,17 +2788,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>matriculate</t>
+          <t>maudlin</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>vt. 入学，录取： to admit or be admitted into a group, especially a college or university.</t>
+          <t>adj. 过于感伤的： effusively or tearfully sentimental</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>matriculate at Princeton  在普林斯顿入学</t>
+          <t>Some naive students display an almost maudlin concern for the welfare of animals while ignoring basicsocial inequity.  一些幼稚的学生忽视根本的社会不公平问题，而对动物的权益表现出一种多愁善感的忧虑</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2822,17 +2810,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>maudlin</t>
+          <t>maven</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>adj. 过于感伤的： effusively or tearfully sentimental</t>
+          <t>n. 专家： one who is experienced or knowledgeable: expert</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Some naive students display an almost maudlin concern for the welfare of animals while ignoring basicsocial inequity.  一些幼稚的学生忽视根本的社会不公平问题，而对动物的权益表现出一种多愁善感的忧虑</t>
+          <t>As an investment maven, he was doing well even when the market was doing poorly.   作 为 一 名 投 资 高手，他在市场不景气的时候也能赚钱</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2844,17 +2832,19 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>maven</t>
+          <t>maverick</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>n. 专家： one who is experienced or knowledgeable: expert</t>
+          <t>n. 特立独行之人： a person who does not conform to generally accepted standards or customs
+adj. 标新立异的，不合常规的： deviating from commonly accepted beliefs or practices</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>As an investment maven, he was doing well even when the market was doing poorly.   作 为 一 名 投 资 高手，他在市场不景气的时候也能赚钱</t>
+          <t>Some mavericks believe that both gravity and light are electromagnetic forces.   一些特立独行的人认为，重力和光都是电磁力
+a maverick view on marriage  关于婚姻的非传统看法</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2866,19 +2856,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>maverick</t>
+          <t>mawkish</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>n. 特立独行之人： a person who does not conform to generally accepted standards or customs
-adj. 标新立异的，不合常规的： deviating from commonly accepted beliefs or practices</t>
+          <t>adj. 过度伤感的： excessively and objectionably sentimental</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Some mavericks believe that both gravity and light are electromagnetic forces.   一些特立独行的人认为，重力和光都是电磁力
-a maverick view on marriage  关于婚姻的非传统看法</t>
+          <t>a mawkish love story  令人伤感的爱情故事</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2890,17 +2878,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>mawkish</t>
+          <t>meager</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>adj. 过度伤感的： excessively and objectionably sentimental</t>
+          <t>adj. 贫乏的： deficient in quantity, fullness, or extent; scanty</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>a mawkish love story  令人伤感的爱情故事</t>
+          <t>meager cultural resources  贫乏的文化资源</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2912,19 +2900,15 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>meager</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>adj. 贫乏的： deficient in quantity, fullness, or extent; scanty</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>meager cultural resources  贫乏的文化资源</t>
-        </is>
-      </c>
+          <t>adj. 卑贱的： ignoble; base</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2934,15 +2918,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>meander</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>adj. 卑贱的： ignoble; base</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
+          <t>vi. 闲逛，漫步： to move aimlessly and idly without fixed direction</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>meander along the river  沿着河闲逛
+vagabonds meandering through life  漂泊一生的浪子</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2952,18 +2941,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>meander</t>
+          <t>measly</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>vi. 闲逛，漫步： to move aimlessly and idly without fixed direction</t>
+          <t>adj. 少得可怜的，微不足道的： so small or unimportant as to warrant little or no attention</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>meander along the river  沿着河闲逛
-vagabonds meandering through life  漂泊一生的浪子</t>
+          <t>gave the parking attendant a measly tip  给了停车保安少得可怜的小费</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2975,17 +2963,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>measly</t>
+          <t>measured</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>adj. 少得可怜的，微不足道的： so small or unimportant as to warrant little or no attention</t>
+          <t>adj. 深思熟虑的，审慎的： deliberated, calculated</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>gave the parking attendant a measly tip  给了停车保安少得可怜的小费</t>
+          <t>a measured response to the terrorist attack  就恐怖袭击做出的深思熟虑的反应</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2997,17 +2985,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>measured</t>
+          <t>meddle</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>adj. 深思熟虑的，审慎的： deliberated, calculated</t>
+          <t>vi. 干涉，管闲事： to intrude into other people's affairs or business; interfere</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>a measured response to the terrorist attack  就恐怖袭击做出的深思熟虑的反应</t>
+          <t>Please stop meddling in my marriage.  请不要来干涉我的婚姻</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3019,17 +3007,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>meddle</t>
+          <t>mediate</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>vi. 干涉，管闲事： to intrude into other people's affairs or business; interfere</t>
+          <t>vt. 调解，调停： to intervene between two or more disputants in order to bring about an agreement,a settlement, or a compromise</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Please stop meddling in my marriage.  请不要来干涉我的婚姻</t>
+          <t>mediate a labor-management dispute  调解劳工纠纷</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3041,17 +3029,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>mediate</t>
+          <t>mediocre</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>vt. 调解，调停： to intervene between two or more disputants in order to bring about an agreement,a settlement, or a compromise</t>
+          <t>adj. 平庸的，质量中等偏下的： moderate to inferior in quality; ordinary</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>mediate a labor-management dispute  调解劳工纠纷</t>
+          <t>Without a desire for success, life is at best mediocre.   没有对成功的强烈渴望，人生最多也就是碌碌无为</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3063,17 +3051,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>mediocre</t>
+          <t>medley</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>adj. 平庸的，质量中等偏下的： moderate to inferior in quality; ordinary</t>
+          <t>adj. 大杂烩，混合物： an unorganized collection or mixture of various things</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Without a desire for success, life is at best mediocre.   没有对成功的强烈渴望，人生最多也就是碌碌无为</t>
+          <t>a medley of snack foods available on the buffet table  自助餐桌上供应着各式各样的小吃</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3085,17 +3073,19 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>medley</t>
+          <t>meek</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>adj. 大杂烩，混合物： an unorganized collection or mixture of various things</t>
+          <t>adj. 谦恭的： showing patience and humility; gentle
+adj. 顺从的： easily imposed on; submissive</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>a medley of snack foods available on the buffet table  自助餐桌上供应着各式各样的小吃</t>
+          <t>He was a meek, mild-mannered fellow.   他是个谦逊、温文尔雅的的人
+He may be self-effacing, but he certainly isn't meek.  他可能是个很低调的人，但他绝非软骨头</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3107,19 +3097,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>meek</t>
+          <t>meet</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>adj. 谦恭的： showing patience and humility; gentle
-adj. 顺从的： easily imposed on; submissive</t>
+          <t>adj. 合适的： precisely adapted to a particular situation, need, or circumstance: very proper</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>He was a meek, mild-mannered fellow.   他是个谦逊、温文尔雅的的人
-He may be self-effacing, but he certainly isn't meek.  他可能是个很低调的人，但他绝非软骨头</t>
+          <t>In this case, splitting the winnings of the contested lottery ticket seems like a meetsolution.   在 这 种 情 况下，平分有争议的彩票奖金或许是个合适的解决方案</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3131,17 +3119,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>meet</t>
+          <t>mellifluous</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>adj. 合适的： precisely adapted to a particular situation, need, or circumstance: very proper</t>
+          <t>adj. （曲调）优美的： smooth and sweet</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>In this case, splitting the winnings of the contested lottery ticket seems like a meetsolution.   在 这 种 情 况下，平分有争议的彩票奖金或许是个合适的解决方案</t>
+          <t>a mellifluous voice  甜美的嗓音</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3153,17 +3141,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>mellifluous</t>
+          <t>melodramatic</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>adj. （曲调）优美的： smooth and sweet</t>
+          <t>adj. 感情夸张的，伤感的： exaggeratedly emotional or sentimental; histrionic</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>a mellifluous voice  甜美的嗓音</t>
+          <t xml:space="preserve">Our office drama queen yet again made the melodramatic declaration that she was contemplating suicide.  </t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3175,17 +3163,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>melodramatic</t>
+          <t>menace</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>adj. 感情夸张的，伤感的： exaggeratedly emotional or sentimental; histrionic</t>
+          <t>vt. 威胁，使处于危险： to make a show of intention to harm; to place in danger</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Our office drama queen yet again made the melodramatic declaration that she was contemplating suicide.  </t>
+          <t>Stockpiles of nuclear weapons that continue to menace the inhabitants of this planet.   大 量 的 核 武 器 持续地威胁着这个行星上的居民</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3197,17 +3185,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>menace</t>
+          <t>mendacious</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>vt. 威胁，使处于危险： to make a show of intention to harm; to place in danger</t>
+          <t>adj. 撒谎的，虚假的： telling or containing lies</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Stockpiles of nuclear weapons that continue to menace the inhabitants of this planet.   大 量 的 核 武 器 持续地威胁着这个行星上的居民</t>
+          <t>mendacious tales about his adventures  关于他冒险的虚假传说</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3219,17 +3207,19 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>mendacious</t>
+          <t>mentor</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>adj. 撒谎的，虚假的： telling or containing lies</t>
+          <t>n. 导师： a trusted counselor or guide
+vt. 教导，指导： to give advice and instruction regarding the course or process to be followed</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>mendacious tales about his adventures  关于他冒险的虚假传说</t>
+          <t>not only an lecturer but also a spirit mentor  不仅是授课者，还是精神导师
+We're looking for volunteers to mentor students in career planning.   我们在寻找能指导学生职业规划的志愿者</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3241,19 +3231,19 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>mentor</t>
+          <t>mercenary</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>n. 导师： a trusted counselor or guide
-vt. 教导，指导： to give advice and instruction regarding the course or process to be followed</t>
+          <t>n. 雇佣军： a professional soldier hired for service in a foreign army
+adj. 唯利是图的，贪婪的： motivated solely by a desire for monetary or material gain</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>not only an lecturer but also a spirit mentor  不仅是授课者，还是精神导师
-We're looking for volunteers to mentor students in career planning.   我们在寻找能指导学生职业规划的志愿者</t>
+          <t>hire a mercenary army to protect the VIP  雇佣了一支佣兵来保护重要人物
+Virtue flies from the heart of a mercenary man.  唯利是图的人没有美德可言</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3265,19 +3255,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>mercenary</t>
+          <t>mercurial</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>n. 雇佣军： a professional soldier hired for service in a foreign army
-adj. 唯利是图的，贪婪的： motivated solely by a desire for monetary or material gain</t>
+          <t>adj. （情绪）善变的： characterized by rapid and unpredictable changeableness of mood</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>hire a mercenary army to protect the VIP  雇佣了一支佣兵来保护重要人物
-Virtue flies from the heart of a mercenary man.  唯利是图的人没有美德可言</t>
+          <t>his mercurial temperament  他善变的脾气</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3289,17 +3277,18 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>mercurial</t>
+          <t>merited</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>adj. （情绪）善变的： characterized by rapid and unpredictable changeableness of mood</t>
+          <t>adj. 应得的，理所当然的： being what is called for by accepted standards of right and wrong</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>his mercurial temperament  他善变的脾气</t>
+          <t>a merited bonus  应得的奖金
+The punishment, although harsh, was entirely merited.  虽 然 惩 罚 很严厉，但的确是应得的</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3311,18 +3300,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>merited</t>
+          <t>mesh</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>adj. 应得的，理所当然的： being what is called for by accepted standards of right and wrong</t>
+          <t>v. 诱捕： to catch or hold as if in a net</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>a merited bonus  应得的奖金
-The punishment, although harsh, was entirely merited.  虽 然 惩 罚 很严厉，但的确是应得的</t>
+          <t>Dolphins sometimes become meshed in fishnets.   有时海豚也会被渔网缠住</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3334,17 +3322,18 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>mesh</t>
+          <t>mesmeric</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>v. 诱捕： to catch or hold as if in a net</t>
+          <t>adj. 催眠的，催眠术的： of, relating to, or induced by mesmerism
+adj. 令人着迷的，难以抗拒的： attracting and holding interest as if by a spell</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Dolphins sometimes become meshed in fishnets.   有时海豚也会被渔网缠住</t>
+          <t>the mesmeric recital  迷人的独奏</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3356,18 +3345,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>mesmeric</t>
+          <t>metamorphose</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>adj. 催眠的，催眠术的： of, relating to, or induced by mesmerism
-adj. 令人着迷的，难以抗拒的： attracting and holding interest as if by a spell</t>
+          <t>vt. 变形： to change into a different physical form especially by supernatural means</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>the mesmeric recital  迷人的独奏</t>
+          <t>a science fiction story in which radiation metamorphoses people into giant bugs  一 个 描 绘 辐 射 将 人 变成了巨大虫子的科幻小说</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3379,17 +3367,19 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>metamorphose</t>
+          <t>metaphysical</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>vt. 变形： to change into a different physical form especially by supernatural means</t>
+          <t>adj. 哲学上的，理论上的： dealing with or expressing a quality or idea
+adj. 非尘世的： of, relating to, or being part of a reality beyond the observable physical universe</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>a science fiction story in which radiation metamorphoses people into giant bugs  一 个 描 绘 辐 射 将 人 变成了巨大虫子的科幻小说</t>
+          <t>a work that deals with such metaphysical questions as the very nature of knowledge  一部探讨诸如“知识的本性是什么”的理论问题的著作
+a metaphysical world beyond the one in which we live  在我们居住的世界之上的“超然世界”</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3401,19 +3391,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>metaphysical</t>
+          <t>meteoric</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>adj. 哲学上的，理论上的： dealing with or expressing a quality or idea
-adj. 非尘世的： of, relating to, or being part of a reality beyond the observable physical universe</t>
+          <t>adj. 流星般迅速而短暂的： similar to a meteor in speed, brilliance, or brevity</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>a work that deals with such metaphysical questions as the very nature of knowledge  一部探讨诸如“知识的本性是什么”的理论问题的著作
-a metaphysical world beyond the one in which we live  在我们居住的世界之上的“超然世界”</t>
+          <t>a meteoric rise to fame  一夜成名</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3425,17 +3413,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>meteoric</t>
+          <t>methodical</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>adj. 流星般迅速而短暂的： similar to a meteor in speed, brilliance, or brevity</t>
+          <t>adj. 井然有序的，有条理的： arranged or proceeding in regular, systematic order</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>a meteoric rise to fame  一夜成名</t>
+          <t>a methodical summary that included lists of points to memorize  一份包含了记忆重点的有条理的总结</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3447,17 +3435,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>methodical</t>
+          <t>meticulous</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>adj. 井然有序的，有条理的： arranged or proceeding in regular, systematic order</t>
+          <t>adj. 极为谨慎的： marked by extreme or excessive care in the consideration or treatment of details</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>a methodical summary that included lists of points to memorize  一份包含了记忆重点的有条理的总结</t>
+          <t>He was so meticulous about everything.   他对所有事都一丝不苟</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3469,17 +3457,19 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>meticulous</t>
+          <t>mettle</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>adj. 极为谨慎的： marked by extreme or excessive care in the consideration or treatment of details</t>
+          <t>n. 勇气： vigor and strength of spirit or temperament
+n. 毅力，耐力： staying quality: stamina</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>He was so meticulous about everything.   他对所有事都一丝不苟</t>
+          <t>troops who showed their mettle in combat  在战场上表现出坚强勇气的部队
+Those trucks had proved their mettle in army transport.   那些卡车通过在军队运输中的表现证明了它们的耐用性</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3491,19 +3481,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>mettle</t>
+          <t>miff</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>n. 勇气： vigor and strength of spirit or temperament
-n. 毅力，耐力： staying quality: stamina</t>
+          <t>vt. 使恼怒： to cause to become offended or annoyed</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>troops who showed their mettle in combat  在战场上表现出坚强勇气的部队
-Those trucks had proved their mettle in army transport.   那些卡车通过在军队运输中的表现证明了它们的耐用性</t>
+          <t>be miffed by her son’s disobedience  被她儿子的叛逆惹恼</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3515,17 +3503,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>miff</t>
+          <t>migratory</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>vt. 使恼怒： to cause to become offended or annoyed</t>
+          <t>adj. 迁移的： having a way of life that involves moving from one region to another typically on aseasonal basis</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>be miffed by her son’s disobedience  被她儿子的叛逆惹恼</t>
+          <t>migratory birds heading south for the winter  为了越冬而往南飞的候鸟</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3537,17 +3525,18 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>migratory</t>
+          <t>milk</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>adj. 迁移的： having a way of life that involves moving from one region to another typically on aseasonal basis</t>
+          <t>vt. 榨取（财富、信息等）： to draw or coerce profit or advantage from illicitly or to an extreme degree</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>migratory birds heading south for the winter  为了越冬而往南飞的候鸟</t>
+          <t>milk the workers  从工人身上榨取好处
+The interrogators milked the arrested spy, but he was dry.   审问者想尽办法套被捕间谍的话，但是无功而返</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3559,18 +3548,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>mime</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>vt. 榨取（财富、信息等）： to draw or coerce profit or advantage from illicitly or to an extreme degree</t>
+          <t>v. 模仿： to use (someone or something) as the model for one's speech, mannerisms, or behavior</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>milk the workers  从工人身上榨取好处
-The interrogators milked the arrested spy, but he was dry.   审问者想尽办法套被捕间谍的话，但是无功而返</t>
+          <t>miming a dog begging for food  模仿小狗乞食</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3582,45 +3570,45 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>mime</t>
+          <t>mimic</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
-        <is>
-          <t>v. 模仿： to use (someone or something) as the model for one's speech, mannerisms, or behavior</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>miming a dog begging for food  模仿小狗乞食</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>mimic</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
         <is>
           <t>adj. 仿真的，仿造的： being such in appearance only and made with or manufactured from usuallycheaper materia
 v. 做滑稽的模仿（以取笑）： to copy or exaggerate (someone or something) in order to make fun of
 v. 模仿： to use (someone or something) as the model for one's speech, mannerisms, or behavior</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>Police were concerned that the mimic gun, although intended only as a toy, might be confused with the realthing in certain situations.   尽管仿真枪只是玩具，但警方担忧在某些情况下它会被误认为是真枪
 The comedian was famous for mimicking the President's distinctive lisp.   这个演员因能滑稽地模仿总统特有的口齿不清而闻名
 began to learn their language by mimicking the sounds they made  通过模仿发音来学习语言</t>
         </is>
       </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>minatory</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>adj. 带来威胁的，有凶兆的： being or showing a sign of evil or calamity to come</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>The novel's protagonist is haunted by a minatory black specter.   小说的主人公被不详的黑色幽灵所骚扰</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3630,17 +3618,19 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>minatory</t>
+          <t>mince</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>adj. 带来威胁的，有凶兆的： being or showing a sign of evil or calamity to come</t>
+          <t>vt. 切碎： to cut or chop into very small pieces
+vi. 小步走： to walk with very short steps or with exaggerated primness</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>The novel's protagonist is haunted by a minatory black specter.   小说的主人公被不详的黑色幽灵所骚扰</t>
+          <t>I'll buy some lean meat and mince it myself.   我会买一些瘦肉然后自己切好的
+The bride minced through the cathedral.   新娘踏着细小的步伐穿过教堂</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3652,72 +3642,71 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>mince</t>
+          <t>mingle</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
-        <is>
-          <t>vt. 切碎： to cut or chop into very small pieces
-vi. 小步走： to walk with very short steps or with exaggerated primness</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>I'll buy some lean meat and mince it myself.   我会买一些瘦肉然后自己切好的
-The bride minced through the cathedral.   新娘踏着细小的步伐穿过教堂</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>mingle</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
         <is>
           <t>vi. 参加社交活动： to take part in social activities
 vt. 混合，结合： to mix so that the components become united</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>mingling at a cocktail party  在鸡尾酒会上与他人交往
 mingle the ingredients  将调料混合
 mingle fact and fiction  糅杂了现实与幻想</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>minimize</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>vt. 将…减到最少： to reduce to the smallest possible amount, extent, size, or degree
 vt. 刻意低估： to underestimate intentionally
 vt. 表示鄙夷： to express scornfully one's low opinion of</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>All striking forces are told to minimize civilian casualties.  所有攻击部队被要求尽可能减少平民伤亡
 minimize losses in our own company while maximize those of the rival  低估我方损失而高估对手损失
 Sore losers minimized the other team's victory.  愤愤不平的失败者对获胜方的胜利表现出鄙夷</t>
         </is>
       </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>mint</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>n. 巨额： an abundant amount, especially of money
+adj. 无损坏的： unmarred as if fresh from a mint</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>worth a mint  价值连城</t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3727,18 +3716,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>mint</t>
+          <t>miniscule</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>n. 巨额： an abundant amount, especially of money
-adj. 无损坏的： unmarred as if fresh from a mint</t>
+          <t>adj. 极小的： very small</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>worth a mint  价值连城</t>
+          <t>a miniscule progress  极小的进步</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3750,17 +3738,19 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>miniscule</t>
+          <t>minute</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>adj. 极小的： very small</t>
+          <t>adj. 仔细的，谨小慎微的： characterized by careful scrutiny and close examination
+adj. 小的，不重要的： very small or of small importance</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>a miniscule progress  极小的进步</t>
+          <t>a minute description of the setting of the story  故事背景的详细介绍
+It is not sagacious to invest excessively in minute details.   过分投入于不重要的细枝末节上是不明智的</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3772,19 +3762,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>minute</t>
+          <t>minutia</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>adj. 仔细的，谨小慎微的： characterized by careful scrutiny and close examination
-adj. 小的，不重要的： very small or of small importance</t>
+          <t>n. 次要的细节，小事： a minute or minor detail</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>a minute description of the setting of the story  故事背景的详细介绍
-It is not sagacious to invest excessively in minute details.   过分投入于不重要的细枝末节上是不明智的</t>
+          <t>plagued by minutiae  被不重要的细节困扰</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3796,17 +3784,18 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>minutia</t>
+          <t>mirage</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>n. 次要的细节，小事： a minute or minor detail</t>
+          <t>n. 海市蜃楼，幻想： something illusory and unattainable like a mirage</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>plagued by minutiae  被不重要的细节困扰</t>
+          <t>Reunion with her husband has become a mirage.   与他丈夫重逢已是可望而不可及的幻象
+A peacefulsolution proved to be a mirage.   和平解决问题是不可能的了</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3818,18 +3807,19 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>mirage</t>
+          <t>mire</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>n. 海市蜃楼，幻想： something illusory and unattainable like a mirage</t>
+          <t>n. 困境： a difficult, puzzling, or embarrassing situation from which there is no easy escape
+vt. 使陷入困境，拖后腿： to hamper or hold back as if by mire</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Reunion with her husband has become a mirage.   与他丈夫重逢已是可望而不可及的幻象
-A peacefulsolution proved to be a mirage.   和平解决问题是不可能的了</t>
+          <t>stuck in a mire of emotional dependency  陷于感情依赖的困境中
+be mired in the past  陷于过去的回忆不能自拔</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3841,19 +3831,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>mire</t>
+          <t>mirth</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>n. 困境： a difficult, puzzling, or embarrassing situation from which there is no easy escape
-vt. 使陷入困境，拖后腿： to hamper or hold back as if by mire</t>
+          <t>n. 欢乐，欢笑： gladness or gaiety as shown by or accompanied with laughter</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>stuck in a mire of emotional dependency  陷于感情依赖的困境中
-be mired in the past  陷于过去的回忆不能自拔</t>
+          <t>a man of little mirth  不苟言笑之人</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3865,17 +3853,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>mirth</t>
+          <t>misanthropic</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>n. 欢乐，欢笑： gladness or gaiety as shown by or accompanied with laughter</t>
+          <t>adj. 反人类的： having or showing a deep distrust of human beings and their motives</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>a man of little mirth  不苟言笑之人</t>
+          <t>a solitary and misanthropic artist  一个孤立的反人类艺术家</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3887,42 +3875,20 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>misanthropic</t>
+          <t>misbehaving</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>adj. 反人类的： having or showing a deep distrust of human beings and their motives</t>
+          <t>adj. 调皮的，行为不端的： engaging in or marked by childish misbehavior</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>a solitary and misanthropic artist  一个孤立的反人类艺术家</t>
+          <t>a new approach for disciplining a chronically misbehaving child  一个教育调皮小孩的新方法</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>misbehaving</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>adj. 调皮的，行为不端的： engaging in or marked by childish misbehavior</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>a new approach for disciplining a chronically misbehaving child  一个教育调皮小孩的新方法</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_2.xlsx
+++ b/result/生词本导入模版_2.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,41 +434,41 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>kidnap</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>vt. 绑架勒索： to seize and detain by unlawful force or fraud and often with a demand for ransom</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>the child was kidnapped and held for ransom  歹徒绑架了孩子，并且向家属勒索赎金</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>GRE</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>单词</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>含义（可不填）</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>例句（可不填）</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>kindle</t>
+          <t>kidnap</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vt. 点燃： to build or fuel (a fire); to set fire to; ignite</t>
+          <t>vt. 绑架勒索： to seize and detain by unlawful force or fraud and often with a demand for ransom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>kindle interest  激发兴趣</t>
+          <t>the child was kidnapped and held for ransom  歹徒绑架了孩子，并且向家属勒索赎金</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -468,17 +480,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>kindred</t>
+          <t>kindle</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>adj. 类似的；具有相似或相近的起源，本性或性质的： having a similar or related origin, nature, orcharacter</t>
+          <t>vt. 点燃： to build or fuel (a fire); to set fire to; ignite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>finally found people who were kindred spirits when she joined the hiking club  她加入登山俱乐部的时候</t>
+          <t>kindle interest  激发兴趣</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -490,17 +502,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>knack</t>
+          <t>kindred</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>n. 诀窍，聪明的做法： a clever trick or stratagem; a clever way of doing something</t>
+          <t>adj. 类似的；具有相似或相近的起源，本性或性质的： having a similar or related origin, nature, orcharacter</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>She's tried every knack in Cupid's book to get her guy to marry her.   她试过了所有爱情三十六计，希望那男人娶她</t>
+          <t>finally found people who were kindred spirits when she joined the hiking club  她加入登山俱乐部的时候</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -512,66 +524,66 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>knack</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>n. 诀窍，聪明的做法： a clever trick or stratagem; a clever way of doing something</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>She's tried every knack in Cupid's book to get her guy to marry her.   她试过了所有爱情三十六计，希望那男人娶她</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>knead</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>vt. 揉捏，塑造： to make or shape by or as if by folding, pressing, and stretching with the hands</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>knead dough  揉面团
 kneading a painful calf muscle  给疼痛的小腿肌肉按摩</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>knit</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>vt. 编织（纱线）： to form by interlacing yarn or thread in a series of connected loops with needles
 vt. 连接，联系： to join closely; unite securely</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>She knitted him a sweater for Christmas.   圣诞节她为他缝了一件毛衣
 Sport knits the whole family close together.  体育将整个家庭紧紧地联系在一起</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>knotty</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>adj. 多结的，复杂的，困难的：marked by or full of knots especially: so full of difficulties andcomplications as to be likely to defy solution</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>The candidates cautiously gave their views on an array of knotty issues.   候选人就一系列的困难问题谨慎地给出了自己的看法</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -581,15 +593,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>kudos</t>
+          <t>knotty</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>n. 名望，名声： fame and renown resulting from an act or achievement</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>adj. 多结的，复杂的，困难的：marked by or full of knots especially: so full of difficulties andcomplications as to be likely to defy solution</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>The candidates cautiously gave their views on an array of knotty issues.   候选人就一系列的困难问题谨慎地给出了自己的看法</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -599,67 +615,63 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>kudos</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>n. 名望，名声： fame and renown resulting from an act or achievement</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>labile</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>adj. 易变的，不稳定的： continually undergoing chemical, physical, or biological change; unstable</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>labile mineral  不稳定的矿物质
 an emotionally labile person  一个多愁善感的人</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>laborious</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>adj. 勤奋的： hard-working; industrious
 adj. 费力的： marked by or requiring long, hard work</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>The volunteers have been commendably laborious in their cleanup of the beach.   清理海滩 的 志愿者们的勤奋努力值得赞扬
 He was gentle and kindly, living a laborious life in his Paris flat.   他是一个温柔、好心的人，住在巴黎的公寓里过着勤奋的生活
 the laborious task of cleaning up the oil spill  清除泄露石油的艰苦工作</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>labyrinthine</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>adj. 迷宫似的，复杂曲折的： of, relating to, resembling, or constituting a labyrinth; extremely complexor tortuous in structure</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>The labyrinthine political situation of Middle East left us totally befuddled.   中东地区复杂迷离的政治局势让我们彻底迷惑了</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -669,17 +681,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>lacerate</t>
+          <t>labyrinthine</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>vt. 使非常痛苦： to cause deep emotional pain to; distress</t>
+          <t>adj. 迷宫似的，复杂曲折的： of, relating to, resembling, or constituting a labyrinth; extremely complexor tortuous in structure</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>He was born into a family already lacerated with tensions and divisions.   他出生在一个已经被冲突和分裂折磨不堪的家庭当中</t>
+          <t>The labyrinthine political situation of Middle East left us totally befuddled.   中东地区复杂迷离的政治局势让我们彻底迷惑了</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -691,15 +703,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>lackluster</t>
+          <t>lacerate</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>adj. 黯淡无光泽的： lacking brightness, luster, or vitality</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>vt. 使非常痛苦： to cause deep emotional pain to; distress</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>He was born into a family already lacerated with tensions and divisions.   他出生在一个已经被冲突和分裂折磨不堪的家庭当中</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -709,19 +725,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>laconic</t>
+          <t>lackluster</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>adj. 简洁（以至于显得粗鲁或难以理解）的： using or involving the use of a minimum of words:concise to the point of seeming rude or mysterious</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>His mentor’s comment tends to be laconic but very much to the point.  他导师的点评很简短，但是却总能说到点子上</t>
-        </is>
-      </c>
+          <t>adj. 黯淡无光泽的： lacking brightness, luster, or vitality</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -731,17 +743,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>lachrymose</t>
+          <t>laconic</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>adj.催人泪下的，悲伤的：tending to cause tears, mournful</t>
+          <t>adj. 简洁（以至于显得粗鲁或难以理解）的： using or involving the use of a minimum of words:concise to the point of seeming rude or mysterious</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>The lachrymose mourners at the funeral required a steady supply of tissues.   葬礼上多愁善感的哀悼者对纸巾提出了巨大的需求</t>
+          <t>His mentor’s comment tends to be laconic but very much to the point.  他导师的点评很简短，但是却总能说到点子上</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -753,17 +765,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>lambaste</t>
+          <t>lachrymose</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>vt. 严厉斥责： to scold sharply; berate</t>
+          <t>adj.催人泪下的，悲伤的：tending to cause tears, mournful</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Critics lambasted his performance.   评论家严厉斥责了他的表演</t>
+          <t>The lachrymose mourners at the funeral required a steady supply of tissues.   葬礼上多愁善感的哀悼者对纸巾提出了巨大的需求</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -775,45 +787,45 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>lambaste</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>vt. 严厉斥责： to scold sharply; berate</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Critics lambasted his performance.   评论家严厉斥责了他的表演</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>lament</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>n. 悼词： a composition expressing one's grief over a loss
 n. 抱怨： an expression of dissatisfaction, pain, or resentment
 vi. 哀悼，表达痛苦或遗憾： to express sorrow or regret; mourn</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>her lament for her grandmother  她为她祖母写的悼词
 the career woman's lament that there aren't any good men left  职场女性的抱怨：好男人都死光了
 lament an innocent death  为无辜的死者而悲痛</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>lamentable</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>adj. 值得惋惜的，悲哀的： inspiring or deserving of lament or regret; deplorable or pitiable; mournful</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>The lamentable cries of the women for their lost sons were heard throughout the village.  女 人 们 由 于丧子之痛的哀嚎响彻整个山谷</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -823,17 +835,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>lampoon</t>
+          <t>lamentable</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>n 讽刺： a harsh satire usually directed against an individual</t>
+          <t>adj. 值得惋惜的，悲哀的： inspiring or deserving of lament or regret; deplorable or pitiable; mournful</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>a lampoon of the movie business at the time  对当时电影产业的一种讽刺</t>
+          <t>The lamentable cries of the women for their lost sons were heard throughout the village.  女 人 们 由 于丧子之痛的哀嚎响彻整个山谷</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -845,17 +857,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>languid</t>
+          <t>lampoon</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>adj. 没精打采的，虚弱的： lacking energy or vitality; weak</t>
+          <t>n 讽刺： a harsh satire usually directed against an individual</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>be languid for weeks after surgery  术后的几周都无精打采的</t>
+          <t>a lampoon of the movie business at the time  对当时电影产业的一种讽刺</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -867,17 +879,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>languish</t>
+          <t>languid</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>vi. 变得衰弱： to be or become feeble, weak, or enervated</t>
+          <t>adj. 没精打采的，虚弱的： lacking energy or vitality; weak</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>languishing during the prolonged heat wave  在持续的热浪下变得虚弱</t>
+          <t>be languid for weeks after surgery  术后的几周都无精打采的</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -889,141 +901,141 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>languish</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>vi. 变得衰弱： to be or become feeble, weak, or enervated</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>languishing during the prolonged heat wave  在持续的热浪下变得虚弱</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>languor</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>n. 懒惰： physical or mental inertness
 n. 衰弱： weakness or weariness of body or mind</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>He enjoyed the languor brought on by a hot summer afternoon.   他很享受夏日午后的慵懒
 The tropical heat sapped our strength, leaving us in a state of unaccustomed languor.   热 带 的 炎 热 气 候消磨着我们的力量，让我们感到一阵虚弱的不适</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>lank</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>adj. 细长瘦弱的： long, straight, and limp; not stiff in structure
 adj. 不僵硬的，柔软松弛的： not stiff in structure</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>a woman with long, lank hair  有着长而稀疏头发的女子
 Right after a shower, her lank hair hung down to her shoulders.   刚出浴的她柔软的头发搭在她的肩上</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>lapse</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>n. 小过失： a slight error typically due to forgetfulness or inattention
 v. 结束，终止： to come to an end</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>a lapse in table manner  餐桌礼仪的小过错
 The contract will lapse at the end of the year.   合同将于年底到期</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>largesse</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>n. 捐赠物： something given to someone without expectation of a return
 n. 慷慨： liberality in giving or willingness to give</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>The alumna's huge bequest was an unexpected largess.  校友们的巨额遗赠是一笔意料之外的财富
 be noted for his largesse  因慷慨而闻名</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>lash</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>n. 击打： a hard strike with a part of the body or an instrument
 v. 猛击，撞击： to strike against with force or violence
 vt. 捆扎： to bind with or as if with a line</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>suddenly felt the lash of her drunken husband's hand on her cheek  突然感觉到脸颊被醉酒的丈夫扇了一耳光
 All night long a barrage of rain lashed the windows.  倾盆大雨整夜敲击着窗户
 Secure the anchor by lashing it to the rail.   通过将锚绑在栏杆上使其稳固。</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>lassitude</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>n. 乏力，没精打采： a state or feeling of weariness, diminished energy, or listlessness</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Symptoms of anaemia include general fatigue and lassitude.  贫血的通常症状包括体虚和乏力</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1033,42 +1045,42 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>lassitude</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>n. 乏力，没精打采： a state or feeling of weariness, diminished energy, or listlessness</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Symptoms of anaemia include general fatigue and lassitude.  贫血的通常症状包括体虚和乏力</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>latent</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>adj. 潜在的，不活跃的： present or potential but not evident or active</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>a latent infection  潜伏性传染病
 He has a latent talent for acting that he hasn't had a chance to</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>latitude</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>n. （行动或言论）自由： freedom from normal restraints, limitations, or regulations</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Students are allowed considerable latitude in choosing courses.   学生在选课时被给予相当大的自由度</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1078,17 +1090,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>laudatory</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>adj. 表示赞扬的： of, relating to, or expressing praise</t>
+          <t>n. （行动或言论）自由： freedom from normal restraints, limitations, or regulations</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>a laudatory review of the new play  对新剧目的赞扬性的评论</t>
+          <t>Students are allowed considerable latitude in choosing courses.   学生在选课时被给予相当大的自由度</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1100,43 +1112,43 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>laudatory</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>adj. 表示赞扬的： of, relating to, or expressing praise</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>a laudatory review of the new play  对新剧目的赞扬性的评论</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>lavish</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>adj. 奢侈大量的： characterized by or produced with extravagance and profusion
 v. 挥霍，浪费： to give readily and in large quantities; to use up carelessly</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>lavish buffet  奢侈的自助餐
 a great actor who lavished his talent in lousy movies  将才华浪费在低劣电影上的影星</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>leaven</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>vt. 用轻松、活泼或变更的影响力来充斥： to mingle or permeate with some modifying, alleviating, orvivifying element</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>He needs to leaven his speeches with more humor.  他需要在演讲中再加入点幽默元素。</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1146,17 +1158,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>leer</t>
+          <t>leaven</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>vi. 一瞥，斜眼看： to cast a sidelong glance</t>
+          <t>vt. 用轻松、活泼或变更的影响力来充斥： to mingle or permeate with some modifying, alleviating, orvivifying element</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>He gave her a leering look.   他瞥了她一眼</t>
+          <t>He needs to leaven his speeches with more humor.  他需要在演讲中再加入点幽默元素。</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1168,17 +1180,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>leery</t>
+          <t>leer</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>adj. 怀疑的，不信任的： suspicious or distrustful; wary</t>
+          <t>vi. 一瞥，斜眼看： to cast a sidelong glance</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>be leery of strangers  对陌生人的怀疑</t>
+          <t>He gave her a leering look.   他瞥了她一眼</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1190,17 +1202,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>legacy</t>
+          <t>leery</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>n. 遗产： something handed down from an ancestor or a predecessor or from the past</t>
+          <t>adj. 怀疑的，不信任的： suspicious or distrustful; wary</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>the legacy of the ancient philosophers  古代哲学家们的思想遗产</t>
+          <t>be leery of strangers  对陌生人的怀疑</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1212,67 +1224,67 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>legacy</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>n. 遗产： something handed down from an ancestor or a predecessor or from the past</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>the legacy of the ancient philosophers  古代哲学家们的思想遗产</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>legend</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>n. 传奇，传说： a popular myth of recent origin
 n. 图例： an explanatory list of the symbols on a map or chart</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">Some ancient civilizations had legends about spirits that inhabited trees and rocks.  许 多 古 老 的 文 明都有着关于寄居于树木、岩石之中的灵魂的传说
 The legend in the science textbook indicated that the accompanying picture had been enlarged by 1000%.  </t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>legion</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>n. 大量的人，（尤指）军团： a large body of men and women organized for land warfare
 adj. 大量的：many, numerous</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>joined the French Foreign Legion  加入了法国外籍军团
 The problems are legion.  问题不计其数</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>lenient</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>adj. 宽大仁慈的： inclined not to be harsh or strict; merciful, generous, or indulgent</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>the lenient sentences  仁慈的审判</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1282,42 +1294,42 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>lenient</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>adj. 宽大仁慈的： inclined not to be harsh or strict; merciful, generous, or indulgent</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>the lenient sentences  仁慈的审判</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>lethal</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>adj. 非常有害的，致命的： extremely harmful; devastating</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>This dagger is lethal.   这把匕首是致命的武器
 launched a lethal attack  发动了致命的进攻</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>lethargic</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>adj. 没精打采的，行动迟缓的： of, relating to, or characterized by lethargy, sluggish</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>a big nice meal always makes me feel lethargic and sleepy  一顿大餐吃完总是让我既慵懒又想睡</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1327,17 +1339,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>levelheaded</t>
+          <t>lethargic</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>adj. 明智的： characteristically self-composed and sensible</t>
+          <t>adj. 没精打采的，行动迟缓的： of, relating to, or characterized by lethargy, sluggish</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>a levelheaded assessment of the problem  对于问题的一个明智的评估</t>
+          <t>a big nice meal always makes me feel lethargic and sleepy  一顿大餐吃完总是让我既慵懒又想睡</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1349,17 +1361,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>levity</t>
+          <t>levelheaded</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>n. 轻浮： excessive or unseemly frivolity</t>
+          <t>adj. 明智的： characteristically self-composed and sensible</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>The teachers disapprove of any displays of levity during school assemblies.   老师们不允许学生在学校聚会过程中表现出任何轻浮的态度</t>
+          <t>a levelheaded assessment of the problem  对于问题的一个明智的评估</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1371,67 +1383,67 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>levity</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>n. 轻浮： excessive or unseemly frivolity</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>The teachers disapprove of any displays of levity during school assemblies.   老师们不允许学生在学校聚会过程中表现出任何轻浮的态度</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>liability</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>n. 责任： the quality or state of being liable
 n. 障碍，不利条件： a feature of someone or something that creates difficulty for achieving success</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>The company is trying to reduce its liability in this case.   在这个案件中，公司试图减少他们的责任
 Their chief asset has now become a considerable liability.   他们最大的优点如今已成了不可小觑的负担</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>liberal</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>adj. 思想前卫的： not bound by traditional ways or beliefs
 adj. 慷慨的，大方的： marked by generosity</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>parents who take a very liberal attitude toward letting their children stay out late  思想开放，同意让他们的小孩晚归的家长们
 a doctor who has been very liberal in dispensing low-cost care to patients who could not otherwise afford it</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>libertine</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>n. 放荡不羁者： one who acts without moral restraint; a dissolute person</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>The legend of Don Juan depicts him as a playboy and libertine.   有关唐璜的传说把他描绘成一个放荡不羁的花花公子</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1441,17 +1453,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>licentious</t>
+          <t>libertine</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>adj. 放荡的，性欲强的： lacking legal or moral restraints ; having a strong sexual desire</t>
+          <t>n. 放荡不羁者： one who acts without moral restraint; a dissolute person</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>a moralist who decried what she regarded as the licentious and corrupt culture of the entertainmentindustry  一个公开谴责在她看来无比堕落和放荡的娱乐圈文化的道德家</t>
+          <t>The legend of Don Juan depicts him as a playboy and libertine.   有关唐璜的传说把他描绘成一个放荡不羁的花花公子</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1463,17 +1475,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>liken</t>
+          <t>licentious</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>vt. 显示相似，比较： to see, mention, or show as similar; compare</t>
+          <t>adj. 放荡的，性欲强的： lacking legal or moral restraints ; having a strong sexual desire</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Life is often likened to a journey.   生活经常被比作一次旅行</t>
+          <t>a moralist who decried what she regarded as the licentious and corrupt culture of the entertainmentindustry  一个公开谴责在她看来无比堕落和放荡的娱乐圈文化的道德家</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1485,17 +1497,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>limber</t>
+          <t>liken</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>adj. 可塑的，柔软的： capable of being shaped: flexible</t>
+          <t>vt. 显示相似，比较： to see, mention, or show as similar; compare</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>She shaped the basket out of limber branches.  她用柔软的树枝编了一个筐</t>
+          <t>Life is often likened to a journey.   生活经常被比作一次旅行</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1507,68 +1519,68 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>limber</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>adj. 可塑的，柔软的： capable of being shaped: flexible</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>She shaped the basket out of limber branches.  她用柔软的树枝编了一个筐</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>limp</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>adj. 柔软的，松散的： lacking firm texture, substance, or structure
 adj. 软弱的，没有精神的： lacking strength or firmness; weak or spiritless
 vi. 跛行，艰难地行走： to move or proceed haltingly or unsteadily</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Her hair hung limp about her shoulders.   她的头发软沓沓地垂在肩上
 The team's limp performance has many people calling for the head coach's resignation.  队 伍 不 给 力的表现让许多人呼吁教练下课</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>limpid</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>adj. 透明清澈的： characterized by transparent clearness
 adj. 镇定的，淡定的： free from emotional or mental agitation</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>limpid streams  清澈的小溪
 the limpid outlook of a man who is at peace with himself as he awaits death  一个人在平静等待死亡的过程当中所体现出来的淡然的世界观</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>linger</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>vi. 磨蹭，闲荡： to proceed slowly; saunter</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>fans lingered outside the door  粉丝们在门外徘徊</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1578,17 +1590,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>lissome</t>
+          <t>linger</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>adj. 柔软的： easily bent; supple</t>
+          <t>vi. 磨蹭，闲荡： to proceed slowly; saunter</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Rattan is such a lissome material that it can be used for all manner of furniture and baskets.  藤 是 一种非常柔软而有韧性的材料，因此可以被用于形形色色的家具和篮子之中</t>
+          <t>fans lingered outside the door  粉丝们在门外徘徊</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1600,17 +1612,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>lissome</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>v. 倾斜： to set or cause to be at an angle</t>
+          <t>adj. 柔软的： easily bent; supple</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>The sudden lift of the load on the deck listed the ship badly.   甲板上货物被突然提起，船陡然倾斜</t>
+          <t>Rattan is such a lissome material that it can be used for all manner of furniture and baskets.  藤 是 一种非常柔软而有韧性的材料，因此可以被用于形形色色的家具和篮子之中</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1622,43 +1634,43 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>v. 倾斜： to set or cause to be at an angle</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>The sudden lift of the load on the deck listed the ship badly.   甲板上货物被突然提起，船陡然倾斜</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>lithe</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>adj. 敏捷的，轻盈的： characterized by easy flexibility and grace
 adj. 柔软的： easily bent or flexed</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>lithe dancers  灵活优雅的舞者
 lithe branches  柔软的枝条</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>loath</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>adj. 不情愿的，讨厌的： unwilling or reluctant; disinclined</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>I was loath to accept the fact that he had been killed in a terrorist attack.   我很不情愿地接受了他在一场恐怖袭击中丧生的事实</t>
-        </is>
-      </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1668,17 +1680,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>loathe</t>
+          <t>loath</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>vt. 厌恶： to dislike someone or something greatly; abhor</t>
+          <t>adj. 不情愿的，讨厌的： unwilling or reluctant; disinclined</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>I loathe having to do this.  我鄙视不得不这样做。</t>
+          <t>I was loath to accept the fact that he had been killed in a terrorist attack.   我很不情愿地接受了他在一场恐怖袭击中丧生的事实</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1690,15 +1702,19 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>lofty</t>
+          <t>loathe</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>adj. 崇高的： elevated in character and spirit, noble</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>vt. 厌恶： to dislike someone or something greatly; abhor</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>I loathe having to do this.  我鄙视不得不这样做。</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1708,68 +1724,64 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>lofty</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>adj. 崇高的： elevated in character and spirit, noble</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>loll</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>vi. 懒洋洋地行动： to act or move in a lax, lazy, or indolent manner
 vi. 偷懒，打发时间： to spend time doing nothing</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>He lolled back in his comfortable chair.  他懒洋洋地倚在他舒适的椅子上
 Some members of the decorating committee were hard at work, and others were just lolling about.   装修队的一部分人在很努力的工作，另一些则在偷懒</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>lopsided</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>adj. 歪的，倾斜的： leaning to one side
 adj.不平衡的，不协调的： lacking in balance, symmetry, or proportion</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>The portrait in the foyer was lopsided.  门厅里的画像挂歪了
 The arrangement of the furniture was lopsided.  家具的摆放太不协调了
 a lopsided score of 4-0 四比零的压倒比分</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>loquacious</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>adj. 话多的： given to fluent or excessive talk</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Sometimes the loquacious talk show host barely lets her guests get a word in.   有时候多话的脱口秀主持人让她的客人一句话都插不进来</t>
-        </is>
-      </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1779,17 +1791,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>loutish</t>
+          <t>loquacious</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>adj. 粗鲁的： having the characteristics of a lout; awkward, stupid, and boorish</t>
+          <t>adj. 话多的： given to fluent or excessive talk</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>a boy with a loutish air  一个举止粗鲁的男孩</t>
+          <t>Sometimes the loquacious talk show host barely lets her guests get a word in.   有时候多话的脱口秀主持人让她的客人一句话都插不进来</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1801,17 +1813,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>lubricate</t>
+          <t>loutish</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>vt. 使润滑： to coat (something) with a slippery substance in order to reduce friction</t>
+          <t>adj. 粗鲁的： having the characteristics of a lout; awkward, stupid, and boorish</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>lubricate the gears  给齿轮打润滑油</t>
+          <t>a boy with a loutish air  一个举止粗鲁的男孩</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1823,17 +1835,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>lucid</t>
+          <t>lubricate</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>adj. 有光亮的： suffused with light</t>
+          <t>vt. 使润滑： to coat (something) with a slippery substance in order to reduce friction</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Those lucid bands that spread across the arctic sky are known as aurora borealis, or the northern lights.  </t>
+          <t>lubricate the gears  给齿轮打润滑油</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1845,39 +1857,43 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>lucid</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>adj. 有光亮的： suffused with light</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Those lucid bands that spread across the arctic sky are known as aurora borealis, or the northern lights.  </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
           <t>lug</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>vt. 拖动，拉动： to cause to follow by applying steady force on
 vt. 费力搬运： to carry laboriously</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">lugged the lawn mower out into the backyard  把割草机拖进院子
 I don't understand why he's always lugging all of his books around when his locker is right over there.  </t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>lugubrious</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>adj. （故作夸张的）悲哀的： mournful, dismal, or gloomy, especially to an exaggerated or ludicrous</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1887,116 +1903,112 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>lugubrious</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>adj. （故作夸张的）悲哀的： mournful, dismal, or gloomy, especially to an exaggerated or ludicrous</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>lull</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>n. 相对平静时期，间隙： a momentary halt in an activity
 vt. 使镇静，使安心： to free from distress or disturbance</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">the lull before the storm  暴风雨前的平静
 The absence of attacks for such an extended period had lulled the nation into a false sense of security.  </t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>lullaby</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>n. 催眠曲： a song to quiet children or lull them to sleep
 vt. 使镇静，使安心： to free from distress or disturbance</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>sang a lullaby to the baby every night  每晚都给孩子唱摇篮曲
 reclining peacefully on the deck, lullabied by the gentle motion of the ship  躺卧在甲板上，随着船轻轻的颠簸放松下来</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>lumber</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>n. 木材： tree logs as prepared for human use
 vi. 笨拙地行动： to walk or move with heavy clumsiness
 vi. 使负担（从而拖累）： to place a weight or burden on</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>A huge amount of lumber will be needed to build the house.   建这栋房子需要大量的木材
 The elephant lumbered through the jungle.  大象缓缓地穿越丛林
 lumber the expedition with unnecessary equipment and supplies  不必要的仪器和补给品给此次远征徒增了许多负担</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>luminary</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>n. 杰出人物： a person who has achieved eminence in a specific field</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Buddhist luminary  佛学大师
 Luminaries from the worlds of sports, entertainment, and politics were atthe gala.   全球体育界、娱乐圈和政界的名人都出席了此次盛会</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>lurch</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>v. 蹒跚： to move forward while swaying from side to side</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>The ship lurched in the storm.   船在风暴中摇摆前行</t>
-        </is>
-      </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2006,17 +2018,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>lurk</t>
+          <t>lurch</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>vi. 潜伏： to lie in wait in a place of concealment especially for an evil purpose</t>
+          <t>v. 蹒跚： to move forward while swaying from side to side</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Dangers lurk in the path of wilderness.  在这条荒野的小路上隐伏着危险</t>
+          <t>The ship lurched in the storm.   船在风暴中摇摆前行</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2028,45 +2040,45 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>lurk</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>vi. 潜伏： to lie in wait in a place of concealment especially for an evil purpose</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Dangers lurk in the path of wilderness.  在这条荒野的小路上隐伏着危险</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
           <t>lush</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>adj. 茂盛的： growing vigorously especially with luxuriant foliage
 adj. 多产的： producing abundantly
 adj. （声音、味道）优美的，令人愉悦的： appealing to the senses</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>lush grass  茂盛的草
 His lush fields were the envy of neighboring farmers.   他富饶多产的土地让邻居羡慕嫉妒恨
 the lush sounds of the orchestra  管弦乐队奏出的悦耳声音</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>lustrous</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>adj. 有光泽的： having a shiny surface or finish</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>lustrous black hair  乌黑光亮的头发</t>
-        </is>
-      </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2076,17 +2088,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>luxurious</t>
+          <t>lustrous</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>adj. 豪华的： showing obvious signs of wealth and comfort</t>
+          <t>adj. 有光泽的： having a shiny surface or finish</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>The luxurious apartment was filled with the latest electronic gadgets and fine works of art.   豪 华 的 公 寓里充斥着最新式的电子产品和精美的艺术作品</t>
+          <t>lustrous black hair  乌黑光亮的头发</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2098,43 +2110,43 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>luxurious</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>adj. 豪华的： showing obvious signs of wealth and comfort</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>The luxurious apartment was filled with the latest electronic gadgets and fine works of art.   豪 华 的 公 寓里充斥着最新式的电子产品和精美的艺术作品</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
           <t>lyric</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>n. （可以哼唱的）小曲： a short musical composition for the human voice often with instrumentalaccompaniment
 adj. 如诗歌般流畅甜美的： having a pleasantly flowing quality suggestive of poetry or music</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>The guitarist improvised and sang a gentle lyric while playing.   吉他手在弹奏的过程中即兴创作并哼唱了一首小曲
 The film's lyric photography really enhanced its romantic mood.   电影中如诗歌般的图像效果着实增强了浪漫的氛围</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>macabre</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>adj. 恐怖的： suggesting the horror of death and decay; gruesome</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Impressively, Plants vs.   Zombies presented a supposedly macabre themeinsuch anenjoyableway.  令人难忘的是，《植物大战僵尸》将一个本应该十分恐怖的主题用一种如此欢乐的方式呈现出来</t>
-        </is>
-      </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2144,17 +2156,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>macerate</t>
+          <t>macabre</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>vt. 浸泡（以软化）： to make soft by soaking or steeping in a liquid</t>
+          <t>adj. 恐怖的： suggesting the horror of death and decay; gruesome</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>macerate the sample in ethanol  用乙醇浸软试样</t>
+          <t>Impressively, Plants vs.   Zombies presented a supposedly macabre themeinsuch anenjoyableway.  令人难忘的是，《植物大战僵尸》将一个本应该十分恐怖的主题用一种如此欢乐的方式呈现出来</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2166,17 +2178,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>maculate</t>
+          <t>macerate</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>v. 使有斑点，弄脏： to spot, blemish</t>
+          <t>vt. 浸泡（以软化）： to make soft by soaking or steeping in a liquid</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Her reputation was maculated after the affair with a married man.  自从被指与一个已婚男士有染之后，她的名声受到了影响</t>
+          <t>macerate the sample in ethanol  用乙醇浸软试样</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2188,17 +2200,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>maelstrom</t>
+          <t>maculate</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>n. 漩涡： a powerful often violent whirlpool sucking in objects within a given radius</t>
+          <t>v. 使有斑点，弄脏： to spot, blemish</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Their raft got caught in a maelstrom.   他们的筏被一个漩涡卷住了</t>
+          <t>Her reputation was maculated after the affair with a married man.  自从被指与一个已婚男士有染之后，她的名声受到了影响</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2210,17 +2222,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>magnificent</t>
+          <t>maelstrom</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>adj. 壮丽的： strikingly beautiful or impressive</t>
+          <t>n. 漩涡： a powerful often violent whirlpool sucking in objects within a given radius</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>a magnificent cathedral  宏伟壮观的大教堂</t>
+          <t>Their raft got caught in a maelstrom.   他们的筏被一个漩涡卷住了</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2232,17 +2244,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>maladroit</t>
+          <t>magnificent</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>adj. 笨拙的： lacking or showing a lack of nimbleness in using one's hands</t>
+          <t>adj. 壮丽的： strikingly beautiful or impressive</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>a maladroit movement  笨拙的动作</t>
+          <t>a magnificent cathedral  宏伟壮观的大教堂</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2254,17 +2266,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>malaise</t>
+          <t>maladroit</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>n. 不舒服： a vague feeling of bodily discomfort, as at the beginning of an illness</t>
+          <t>adj. 笨拙的： lacking or showing a lack of nimbleness in using one's hands</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>He complained of depression, headaches and malaise.   他抱怨说感到沮丧、头痛和身体不适</t>
+          <t>a maladroit movement  笨拙的动作</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2276,43 +2288,43 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
+          <t>malaise</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>n. 不舒服： a vague feeling of bodily discomfort, as at the beginning of an illness</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>He complained of depression, headaches and malaise.   他抱怨说感到沮丧、头痛和身体不适</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
           <t>malcontent</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>n. 不满分子： one who is in active opposition to an established order or government
 adj. 不满的： dissatisfied with the existing state of affairs</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>The chaos was caused by a handful of malcontents.  混乱是由一小撮不满分子引起的
 The film follows three malcontent teenagers around Paris.   电影围绕着三个不满现实的青少年在巴黎展开</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>malicious</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>adj. 恶意的： given to, marked by, or arising from malice; deliberately harmful</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>spread malicious gossips  散播恶意的流言蜚语</t>
-        </is>
-      </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2322,43 +2334,43 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>malicious</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>adj. 恶意的： given to, marked by, or arising from malice; deliberately harmful</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>spread malicious gossips  散播恶意的流言蜚语</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
           <t>malign</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>adj. 恶意的： having or showing a desire to cause someone pain or suffering for the sheer enjoymentof it
 vt. 诽谤： to utter injuriously misleading or false reports about: speak evil of</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>Both parties to the divorce showed a malign desire to make each other's future life utterly miserable.   离婚双方都表露出了恶毒的愿望，希望对方未来的生活陷入彻底的悲剧之中
 the belief that it is possible to win an election without maligning anyone  一种信念，那就是要赢得一场选举就不得不诽谤他人</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>malinger</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>vi. 装病以逃避工作： to pretend or exaggerate incapacity or illness (as to avoid duty or work)</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>He claims he's ill, but I think he's just malingering.   他声称他病了，但我觉得他是装的</t>
-        </is>
-      </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2368,43 +2380,43 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>malinger</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>vi. 装病以逃避工作： to pretend or exaggerate incapacity or illness (as to avoid duty or work)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>He claims he's ill, but I think he's just malingering.   他声称他病了，但我觉得他是装的</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
           <t>malleable</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>adj. 可塑的： capable of being extended or shaped by beating with a hammer or by the pressure ofrollers
 adj. 易控制的： capable of being altered or controlled by outside forces or influences</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>a malleable metal  有延展性的金属
 The cult leader took advantage of the malleable, compliant personalities of his followers.  这 个 头 目 利用了他的信徒们容易被控制和顺从的特征</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>malodorous</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>adj. 恶臭的： having an unpleasant smell</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>American musteline will eject amalodorous fluid when startled.   美洲鼬科动物受惊吓时会喷出有恶臭味的液体</t>
-        </is>
-      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2414,17 +2426,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>mandatory</t>
+          <t>malodorous</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>adj. 强制的： forcing one's compliance or participation</t>
+          <t>adj. 恶臭的： having an unpleasant smell</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>GRE test is mandatory for all students, regardless of their nationality, who wish to apply for graduateschools in the United States.  GRE  是每个申请美国研究生院的学生（无论国籍）所必须参加的考试</t>
+          <t>American musteline will eject amalodorous fluid when startled.   美洲鼬科动物受惊吓时会喷出有恶臭味的液体</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2436,43 +2448,43 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>mandatory</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>adj. 强制的： forcing one's compliance or participation</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>GRE test is mandatory for all students, regardless of their nationality, who wish to apply for graduateschools in the United States.  GRE  是每个申请美国研究生院的学生（无论国籍）所必须参加的考试</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
           <t>mangle</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>vt. 损毁，使伤残： to injure with deep disfiguring wounds by cutting, tearing, or crushing
 vt. 弄砸： to ruin or spoil through ineptitude or ignorance</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>His body was mangled beyond recognition.  他的尸体已经被损毁到无法辨认的程度了
 The orchestra had completely mangled Bach’s music.   乐队彻底演砸了巴赫的音乐</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>mangy</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>adj. 卑劣的： mean; contemptible</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>a mangy trick  卑鄙的手段</t>
-        </is>
-      </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2482,17 +2494,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>mania</t>
+          <t>mangy</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>n. 热衷，狂热： an excessively intense enthusiasm, interest, or desire; a craze</t>
+          <t>adj. 卑劣的： mean; contemptible</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>a mania for neatness  强烈的洁癖</t>
+          <t>a mangy trick  卑鄙的手段</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2504,39 +2516,43 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
+          <t>mania</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>n. 热衷，狂热： an excessively intense enthusiasm, interest, or desire; a craze</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>a mania for neatness  强烈的洁癖</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t>manifest</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>adj. 显然的，明显易懂的： clearly apparent to the sight or understanding; obvious
 v. 显现，显露： to make evident or certain by showing or displaying</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>He is a manifest poseur.  他显然是个装模作样的人
 His frustration is often manifested by a minor facial tic.   他的沮丧通常会从脸部的细微抽搐中表现出来</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>manipulate</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>vt. 巧妙操作： to move, arrange, operate, or control by the hands or by mechanical means, especially</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2546,19 +2562,15 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>mannered</t>
+          <t>manipulate</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>adj. 不自然的，做作的： having an artificial or stilted character</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>a mannered speech  做作的演讲</t>
-        </is>
-      </c>
+          <t>vt. 巧妙操作： to move, arrange, operate, or control by the hands or by mechanical means, especially</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2568,17 +2580,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>manumit</t>
+          <t>mannered</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>v. 解放（奴隶）： to release from slavery or bondage</t>
+          <t>adj. 不自然的，做作的： having an artificial or stilted character</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Though he was an outspoken defender of liberty, this son of Virginia did not manumit his own slaves untilhe was on his deathbed.   尽管这位维吉尼亚之子公开地支持自由，但他直到临死才释放自己的奴隶</t>
+          <t>a mannered speech  做作的演讲</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2590,17 +2602,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>manuscript</t>
+          <t>manumit</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>n. 手稿： a book, document, or other composition written by hand</t>
+          <t>v. 解放（奴隶）： to release from slavery or bondage</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>beautiful Latin manuscript on the school's diplomas  学校毕业证书上美丽的手写拉丁文</t>
+          <t>Though he was an outspoken defender of liberty, this son of Virginia did not manumit his own slaves untilhe was on his deathbed.   尽管这位维吉尼亚之子公开地支持自由，但他直到临死才释放自己的奴隶</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2612,44 +2624,44 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
+          <t>manuscript</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>n. 手稿： a book, document, or other composition written by hand</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>beautiful Latin manuscript on the school's diplomas  学校毕业证书上美丽的手写拉丁文</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
           <t>mar</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>n.污点，坏点： something that spoils the appearance or completeness of a thing
 vt. 破坏，削弱： to impair the soundness, perfection, or integrity of; spoil</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>mars on the furniture  家具上的污点
 The once flatroad surface is now marred by numerous potholes.   曾经平整的路面如今被坑洞所破坏
 anelection marred by sexual scandal  被性丑闻蒙上阴影的选举</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>marsh</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>n. 沼泽，湿地： an area of soft, wet, low-lying land</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>The marshes along the coast support a remarkable profusion of plants and animals.  沿 着 海 岸 线 一 带的沼泽为大量的动植物提供了栖息所</t>
-        </is>
-      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2659,17 +2671,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>martinet</t>
+          <t>marsh</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>n. 纪律严明之人： a strict disciplinarian</t>
+          <t>n. 沼泽，湿地： an area of soft, wet, low-lying land</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>He's a retired lieutenant and a bit of a martinet.  他是一个退役的中尉，并且是一个有点纪律严明的人</t>
+          <t>The marshes along the coast support a remarkable profusion of plants and animals.  沿 着 海 岸 线 一 带的沼泽为大量的动植物提供了栖息所</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2681,38 +2693,38 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
+          <t>martinet</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>n. 纪律严明之人： a strict disciplinarian</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>He's a retired lieutenant and a bit of a martinet.  他是一个退役的中尉，并且是一个有点纪律严明的人</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
           <t>marvel</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>n. 令人惊奇的事物： one that evokes surprise, admiration, or wonder
 v.（因为壮观、美丽等而）表示惊讶： to feel amazement or bewilderment at or about</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>masquerade</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>n. 面具，伪装： a display of emotion or behavior that is insincere or intended to deceive</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Although she was deeply bored, she maintained a masquerade of polite interest as her guest droned on.  </t>
-        </is>
-      </c>
+      <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2722,17 +2734,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>mash</t>
+          <t>masquerade</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>v. 捣碎： to cause to become a pulpy mass</t>
+          <t>n. 面具，伪装： a display of emotion or behavior that is insincere or intended to deceive</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>mash potatoesbefore adding it to the mixture  在混合之前捣碎土豆</t>
+          <t xml:space="preserve">Although she was deeply bored, she maintained a masquerade of polite interest as her guest droned on.  </t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2744,17 +2756,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>mastery</t>
+          <t>mash</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>n. 技艺超群，精通： possession or display of great skill or technique</t>
+          <t>v. 捣碎： to cause to become a pulpy mass</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>She has mastery of several languages.   她熟练掌握多种语言</t>
+          <t>mash potatoesbefore adding it to the mixture  在混合之前捣碎土豆</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2766,17 +2778,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>matriculate</t>
+          <t>mastery</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>vt. 入学，录取： to admit or be admitted into a group, especially a college or university.</t>
+          <t>n. 技艺超群，精通： possession or display of great skill or technique</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>matriculate at Princeton  在普林斯顿入学</t>
+          <t>She has mastery of several languages.   她熟练掌握多种语言</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2788,17 +2800,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>maudlin</t>
+          <t>matriculate</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>adj. 过于感伤的： effusively or tearfully sentimental</t>
+          <t>vt. 入学，录取： to admit or be admitted into a group, especially a college or university.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Some naive students display an almost maudlin concern for the welfare of animals while ignoring basicsocial inequity.  一些幼稚的学生忽视根本的社会不公平问题，而对动物的权益表现出一种多愁善感的忧虑</t>
+          <t>matriculate at Princeton  在普林斯顿入学</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2810,17 +2822,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>maven</t>
+          <t>maudlin</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>n. 专家： one who is experienced or knowledgeable: expert</t>
+          <t>adj. 过于感伤的： effusively or tearfully sentimental</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>As an investment maven, he was doing well even when the market was doing poorly.   作 为 一 名 投 资 高手，他在市场不景气的时候也能赚钱</t>
+          <t>Some naive students display an almost maudlin concern for the welfare of animals while ignoring basicsocial inequity.  一些幼稚的学生忽视根本的社会不公平问题，而对动物的权益表现出一种多愁善感的忧虑</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2832,43 +2844,43 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
+          <t>maven</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>n. 专家： one who is experienced or knowledgeable: expert</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>As an investment maven, he was doing well even when the market was doing poorly.   作 为 一 名 投 资 高手，他在市场不景气的时候也能赚钱</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
           <t>maverick</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>n. 特立独行之人： a person who does not conform to generally accepted standards or customs
 adj. 标新立异的，不合常规的： deviating from commonly accepted beliefs or practices</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>Some mavericks believe that both gravity and light are electromagnetic forces.   一些特立独行的人认为，重力和光都是电磁力
 a maverick view on marriage  关于婚姻的非传统看法</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>mawkish</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>adj. 过度伤感的： excessively and objectionably sentimental</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>a mawkish love story  令人伤感的爱情故事</t>
-        </is>
-      </c>
       <c r="D109" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2878,17 +2890,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>meager</t>
+          <t>mawkish</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>adj. 贫乏的： deficient in quantity, fullness, or extent; scanty</t>
+          <t>adj. 过度伤感的： excessively and objectionably sentimental</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>meager cultural resources  贫乏的文化资源</t>
+          <t>a mawkish love story  令人伤感的爱情故事</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2900,15 +2912,19 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>meager</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>adj. 卑贱的： ignoble; base</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
+          <t>adj. 贫乏的： deficient in quantity, fullness, or extent; scanty</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>meager cultural resources  贫乏的文化资源</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2918,42 +2934,38 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>adj. 卑贱的： ignoble; base</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
           <t>meander</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>vi. 闲逛，漫步： to move aimlessly and idly without fixed direction</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>meander along the river  沿着河闲逛
 vagabonds meandering through life  漂泊一生的浪子</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>measly</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>adj. 少得可怜的，微不足道的： so small or unimportant as to warrant little or no attention</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>gave the parking attendant a measly tip  给了停车保安少得可怜的小费</t>
-        </is>
-      </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2963,17 +2975,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>measured</t>
+          <t>measly</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>adj. 深思熟虑的，审慎的： deliberated, calculated</t>
+          <t>adj. 少得可怜的，微不足道的： so small or unimportant as to warrant little or no attention</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>a measured response to the terrorist attack  就恐怖袭击做出的深思熟虑的反应</t>
+          <t>gave the parking attendant a measly tip  给了停车保安少得可怜的小费</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2985,17 +2997,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>meddle</t>
+          <t>measured</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>vi. 干涉，管闲事： to intrude into other people's affairs or business; interfere</t>
+          <t>adj. 深思熟虑的，审慎的： deliberated, calculated</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Please stop meddling in my marriage.  请不要来干涉我的婚姻</t>
+          <t>a measured response to the terrorist attack  就恐怖袭击做出的深思熟虑的反应</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3007,17 +3019,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>mediate</t>
+          <t>meddle</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>vt. 调解，调停： to intervene between two or more disputants in order to bring about an agreement,a settlement, or a compromise</t>
+          <t>vi. 干涉，管闲事： to intrude into other people's affairs or business; interfere</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>mediate a labor-management dispute  调解劳工纠纷</t>
+          <t>Please stop meddling in my marriage.  请不要来干涉我的婚姻</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3029,17 +3041,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>mediocre</t>
+          <t>mediate</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>adj. 平庸的，质量中等偏下的： moderate to inferior in quality; ordinary</t>
+          <t>vt. 调解，调停： to intervene between two or more disputants in order to bring about an agreement,a settlement, or a compromise</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Without a desire for success, life is at best mediocre.   没有对成功的强烈渴望，人生最多也就是碌碌无为</t>
+          <t>mediate a labor-management dispute  调解劳工纠纷</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3051,17 +3063,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>medley</t>
+          <t>mediocre</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>adj. 大杂烩，混合物： an unorganized collection or mixture of various things</t>
+          <t>adj. 平庸的，质量中等偏下的： moderate to inferior in quality; ordinary</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>a medley of snack foods available on the buffet table  自助餐桌上供应着各式各样的小吃</t>
+          <t>Without a desire for success, life is at best mediocre.   没有对成功的强烈渴望，人生最多也就是碌碌无为</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3073,43 +3085,43 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
+          <t>medley</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>adj. 大杂烩，混合物： an unorganized collection or mixture of various things</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>a medley of snack foods available on the buffet table  自助餐桌上供应着各式各样的小吃</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
           <t>meek</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>adj. 谦恭的： showing patience and humility; gentle
 adj. 顺从的： easily imposed on; submissive</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>He was a meek, mild-mannered fellow.   他是个谦逊、温文尔雅的的人
 He may be self-effacing, but he certainly isn't meek.  他可能是个很低调的人，但他绝非软骨头</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>meet</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>adj. 合适的： precisely adapted to a particular situation, need, or circumstance: very proper</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>In this case, splitting the winnings of the contested lottery ticket seems like a meetsolution.   在 这 种 情 况下，平分有争议的彩票奖金或许是个合适的解决方案</t>
-        </is>
-      </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3119,17 +3131,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>mellifluous</t>
+          <t>meet</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>adj. （曲调）优美的： smooth and sweet</t>
+          <t>adj. 合适的： precisely adapted to a particular situation, need, or circumstance: very proper</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>a mellifluous voice  甜美的嗓音</t>
+          <t>In this case, splitting the winnings of the contested lottery ticket seems like a meetsolution.   在 这 种 情 况下，平分有争议的彩票奖金或许是个合适的解决方案</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3141,17 +3153,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>melodramatic</t>
+          <t>mellifluous</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>adj. 感情夸张的，伤感的： exaggeratedly emotional or sentimental; histrionic</t>
+          <t>adj. （曲调）优美的： smooth and sweet</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Our office drama queen yet again made the melodramatic declaration that she was contemplating suicide.  </t>
+          <t>a mellifluous voice  甜美的嗓音</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3163,17 +3175,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>menace</t>
+          <t>melodramatic</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>vt. 威胁，使处于危险： to make a show of intention to harm; to place in danger</t>
+          <t>adj. 感情夸张的，伤感的： exaggeratedly emotional or sentimental; histrionic</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Stockpiles of nuclear weapons that continue to menace the inhabitants of this planet.   大 量 的 核 武 器 持续地威胁着这个行星上的居民</t>
+          <t xml:space="preserve">Our office drama queen yet again made the melodramatic declaration that she was contemplating suicide.  </t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3185,17 +3197,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>mendacious</t>
+          <t>menace</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>adj. 撒谎的，虚假的： telling or containing lies</t>
+          <t>vt. 威胁，使处于危险： to make a show of intention to harm; to place in danger</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>mendacious tales about his adventures  关于他冒险的虚假传说</t>
+          <t>Stockpiles of nuclear weapons that continue to menace the inhabitants of this planet.   大 量 的 核 武 器 持续地威胁着这个行星上的居民</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3207,67 +3219,67 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
+          <t>mendacious</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>adj. 撒谎的，虚假的： telling or containing lies</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>mendacious tales about his adventures  关于他冒险的虚假传说</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
           <t>mentor</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>n. 导师： a trusted counselor or guide
 vt. 教导，指导： to give advice and instruction regarding the course or process to be followed</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>not only an lecturer but also a spirit mentor  不仅是授课者，还是精神导师
 We're looking for volunteers to mentor students in career planning.   我们在寻找能指导学生职业规划的志愿者</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>mercenary</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>n. 雇佣军： a professional soldier hired for service in a foreign army
 adj. 唯利是图的，贪婪的： motivated solely by a desire for monetary or material gain</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>hire a mercenary army to protect the VIP  雇佣了一支佣兵来保护重要人物
 Virtue flies from the heart of a mercenary man.  唯利是图的人没有美德可言</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>mercurial</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>adj. （情绪）善变的： characterized by rapid and unpredictable changeableness of mood</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>his mercurial temperament  他善变的脾气</t>
-        </is>
-      </c>
       <c r="D127" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3277,42 +3289,42 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
+          <t>mercurial</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>adj. （情绪）善变的： characterized by rapid and unpredictable changeableness of mood</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>his mercurial temperament  他善变的脾气</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
           <t>merited</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>adj. 应得的，理所当然的： being what is called for by accepted standards of right and wrong</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>a merited bonus  应得的奖金
 The punishment, although harsh, was entirely merited.  虽 然 惩 罚 很严厉，但的确是应得的</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>mesh</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>v. 诱捕： to catch or hold as if in a net</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Dolphins sometimes become meshed in fishnets.   有时海豚也会被渔网缠住</t>
-        </is>
-      </c>
       <c r="D129" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3322,40 +3334,40 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
+          <t>mesh</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>v. 诱捕： to catch or hold as if in a net</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Dolphins sometimes become meshed in fishnets.   有时海豚也会被渔网缠住</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
           <t>mesmeric</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>adj. 催眠的，催眠术的： of, relating to, or induced by mesmerism
 adj. 令人着迷的，难以抗拒的： attracting and holding interest as if by a spell</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>the mesmeric recital  迷人的独奏</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>metamorphose</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>vt. 变形： to change into a different physical form especially by supernatural means</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>a science fiction story in which radiation metamorphoses people into giant bugs  一 个 描 绘 辐 射 将 人 变成了巨大虫子的科幻小说</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3367,43 +3379,43 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
+          <t>metamorphose</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>vt. 变形： to change into a different physical form especially by supernatural means</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>a science fiction story in which radiation metamorphoses people into giant bugs  一 个 描 绘 辐 射 将 人 变成了巨大虫子的科幻小说</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
           <t>metaphysical</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>adj. 哲学上的，理论上的： dealing with or expressing a quality or idea
 adj. 非尘世的： of, relating to, or being part of a reality beyond the observable physical universe</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>a work that deals with such metaphysical questions as the very nature of knowledge  一部探讨诸如“知识的本性是什么”的理论问题的著作
 a metaphysical world beyond the one in which we live  在我们居住的世界之上的“超然世界”</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>meteoric</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>adj. 流星般迅速而短暂的： similar to a meteor in speed, brilliance, or brevity</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>a meteoric rise to fame  一夜成名</t>
-        </is>
-      </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3413,17 +3425,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>methodical</t>
+          <t>meteoric</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>adj. 井然有序的，有条理的： arranged or proceeding in regular, systematic order</t>
+          <t>adj. 流星般迅速而短暂的： similar to a meteor in speed, brilliance, or brevity</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>a methodical summary that included lists of points to memorize  一份包含了记忆重点的有条理的总结</t>
+          <t>a meteoric rise to fame  一夜成名</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3435,17 +3447,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>meticulous</t>
+          <t>methodical</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>adj. 极为谨慎的： marked by extreme or excessive care in the consideration or treatment of details</t>
+          <t>adj. 井然有序的，有条理的： arranged or proceeding in regular, systematic order</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>He was so meticulous about everything.   他对所有事都一丝不苟</t>
+          <t>a methodical summary that included lists of points to memorize  一份包含了记忆重点的有条理的总结</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3457,43 +3469,43 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
+          <t>meticulous</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>adj. 极为谨慎的： marked by extreme or excessive care in the consideration or treatment of details</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>He was so meticulous about everything.   他对所有事都一丝不苟</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
           <t>mettle</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>n. 勇气： vigor and strength of spirit or temperament
 n. 毅力，耐力： staying quality: stamina</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>troops who showed their mettle in combat  在战场上表现出坚强勇气的部队
 Those trucks had proved their mettle in army transport.   那些卡车通过在军队运输中的表现证明了它们的耐用性</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>miff</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>vt. 使恼怒： to cause to become offended or annoyed</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>be miffed by her son’s disobedience  被她儿子的叛逆惹恼</t>
-        </is>
-      </c>
       <c r="D137" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3503,17 +3515,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>migratory</t>
+          <t>miff</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>adj. 迁移的： having a way of life that involves moving from one region to another typically on aseasonal basis</t>
+          <t>vt. 使恼怒： to cause to become offended or annoyed</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>migratory birds heading south for the winter  为了越冬而往南飞的候鸟</t>
+          <t>be miffed by her son’s disobedience  被她儿子的叛逆惹恼</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3525,42 +3537,42 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
+          <t>migratory</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>adj. 迁移的： having a way of life that involves moving from one region to another typically on aseasonal basis</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>migratory birds heading south for the winter  为了越冬而往南飞的候鸟</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
           <t>milk</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>vt. 榨取（财富、信息等）： to draw or coerce profit or advantage from illicitly or to an extreme degree</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>milk the workers  从工人身上榨取好处
 The interrogators milked the arrested spy, but he was dry.   审问者想尽办法套被捕间谍的话，但是无功而返</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>mime</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>v. 模仿： to use (someone or something) as the model for one's speech, mannerisms, or behavior</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>miming a dog begging for food  模仿小狗乞食</t>
-        </is>
-      </c>
       <c r="D140" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3570,45 +3582,45 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
+          <t>mime</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>v. 模仿： to use (someone or something) as the model for one's speech, mannerisms, or behavior</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>miming a dog begging for food  模仿小狗乞食</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
           <t>mimic</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>adj. 仿真的，仿造的： being such in appearance only and made with or manufactured from usuallycheaper materia
 v. 做滑稽的模仿（以取笑）： to copy or exaggerate (someone or something) in order to make fun of
 v. 模仿： to use (someone or something) as the model for one's speech, mannerisms, or behavior</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>Police were concerned that the mimic gun, although intended only as a toy, might be confused with the realthing in certain situations.   尽管仿真枪只是玩具，但警方担忧在某些情况下它会被误认为是真枪
 The comedian was famous for mimicking the President's distinctive lisp.   这个演员因能滑稽地模仿总统特有的口齿不清而闻名
 began to learn their language by mimicking the sounds they made  通过模仿发音来学习语言</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>minatory</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>adj. 带来威胁的，有凶兆的： being or showing a sign of evil or calamity to come</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>The novel's protagonist is haunted by a minatory black specter.   小说的主人公被不详的黑色幽灵所骚扰</t>
-        </is>
-      </c>
       <c r="D142" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3618,115 +3630,115 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
+          <t>minatory</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>adj. 带来威胁的，有凶兆的： being or showing a sign of evil or calamity to come</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>The novel's protagonist is haunted by a minatory black specter.   小说的主人公被不详的黑色幽灵所骚扰</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
           <t>mince</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>vt. 切碎： to cut or chop into very small pieces
 vi. 小步走： to walk with very short steps or with exaggerated primness</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>I'll buy some lean meat and mince it myself.   我会买一些瘦肉然后自己切好的
 The bride minced through the cathedral.   新娘踏着细小的步伐穿过教堂</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>mingle</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>vi. 参加社交活动： to take part in social activities
 vt. 混合，结合： to mix so that the components become united</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>mingling at a cocktail party  在鸡尾酒会上与他人交往
 mingle the ingredients  将调料混合
 mingle fact and fiction  糅杂了现实与幻想</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>minimize</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>vt. 将…减到最少： to reduce to the smallest possible amount, extent, size, or degree
 vt. 刻意低估： to underestimate intentionally
 vt. 表示鄙夷： to express scornfully one's low opinion of</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>All striking forces are told to minimize civilian casualties.  所有攻击部队被要求尽可能减少平民伤亡
 minimize losses in our own company while maximize those of the rival  低估我方损失而高估对手损失
 Sore losers minimized the other team's victory.  愤愤不平的失败者对获胜方的胜利表现出鄙夷</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>mint</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>n. 巨额： an abundant amount, especially of money
 adj. 无损坏的： unmarred as if fresh from a mint</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>worth a mint  价值连城</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>miniscule</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>adj. 极小的： very small</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>a miniscule progress  极小的进步</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3738,43 +3750,43 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
+          <t>miniscule</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>adj. 极小的： very small</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>a miniscule progress  极小的进步</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
           <t>minute</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>adj. 仔细的，谨小慎微的： characterized by careful scrutiny and close examination
 adj. 小的，不重要的： very small or of small importance</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>a minute description of the setting of the story  故事背景的详细介绍
 It is not sagacious to invest excessively in minute details.   过分投入于不重要的细枝末节上是不明智的</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>minutia</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>n. 次要的细节，小事： a minute or minor detail</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>plagued by minutiae  被不重要的细节困扰</t>
-        </is>
-      </c>
       <c r="D149" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3784,66 +3796,66 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
+          <t>minutia</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>n. 次要的细节，小事： a minute or minor detail</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>plagued by minutiae  被不重要的细节困扰</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
           <t>mirage</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>n. 海市蜃楼，幻想： something illusory and unattainable like a mirage</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>Reunion with her husband has become a mirage.   与他丈夫重逢已是可望而不可及的幻象
 A peacefulsolution proved to be a mirage.   和平解决问题是不可能的了</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>mire</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>n. 困境： a difficult, puzzling, or embarrassing situation from which there is no easy escape
 vt. 使陷入困境，拖后腿： to hamper or hold back as if by mire</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>stuck in a mire of emotional dependency  陷于感情依赖的困境中
 be mired in the past  陷于过去的回忆不能自拔</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>mirth</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>n. 欢乐，欢笑： gladness or gaiety as shown by or accompanied with laughter</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>a man of little mirth  不苟言笑之人</t>
-        </is>
-      </c>
       <c r="D152" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3853,17 +3865,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>misanthropic</t>
+          <t>mirth</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>adj. 反人类的： having or showing a deep distrust of human beings and their motives</t>
+          <t>n. 欢乐，欢笑： gladness or gaiety as shown by or accompanied with laughter</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>a solitary and misanthropic artist  一个孤立的反人类艺术家</t>
+          <t>a man of little mirth  不苟言笑之人</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3875,20 +3887,42 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
+          <t>misanthropic</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>adj. 反人类的： having or showing a deep distrust of human beings and their motives</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>a solitary and misanthropic artist  一个孤立的反人类艺术家</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
           <t>misbehaving</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>adj. 调皮的，行为不端的： engaging in or marked by childish misbehavior</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>a new approach for disciplining a chronically misbehaving child  一个教育调皮小孩的新方法</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>
